--- a/libraries/emundus/vendor/phpoffice/phpspreadsheet/src/PhpSpreadsheet/Calculation/locale/Translations.xlsx
+++ b/libraries/emundus/vendor/phpoffice/phpspreadsheet/src/PhpSpreadsheet/Calculation/locale/Translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PHPOffice\PhpSpreadsheet\src\PhpSpreadsheet\Calculation\locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nooctal\src\PhpSpreadsheet\Calculation\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87646DB-FEB4-4FCD-B053-44A5BED57F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E7E357-BC02-47A7-9FD9-A058D7403D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="780" windowWidth="22368" windowHeight="13620" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="989" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Localisation" sheetId="4" r:id="rId1"/>
@@ -54,6 +54,19 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7E149540-45F7-45C7-8660-0EFBB7E0976B}</author>
+    <author>tc={E138FC8D-CF03-4DDC-BD49-5EE171CE701F}</author>
+    <author>tc={868F32B0-D73B-4C01-B4A5-8B50AC93BC60}</author>
+    <author>tc={61F71480-555F-404F-870F-9E9DFD41D0BC}</author>
+    <author>tc={C02634D7-5549-4BEC-A659-237ECEFD000F}</author>
+    <author>tc={BB970519-C2C0-4441-B343-F13D4CD744BE}</author>
+    <author>tc={915F01F8-B93F-4634-A958-C88DB26A4489}</author>
+    <author>tc={FF6A9B1E-172D-419A-AE26-363E0061308C}</author>
+    <author>tc={CACDDDBD-012F-4F2F-8457-4FF52EB4D2D0}</author>
+    <author>tc={3B6725E7-9A95-45C6-BAD0-BB4C900C4B9F}</author>
+    <author>tc={6005DC7F-03C9-4B1E-B445-787F12B5B7BC}</author>
+    <author>tc={5539F2F5-C7CE-40CC-84E7-73C614DD1C3A}</author>
+    <author>tc={0BC0B73F-15BC-4022-959C-D8A0FF6F60FB}</author>
+    <author>tc={4BB940B1-F984-4562-9953-F98AB6C81E95}</author>
   </authors>
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7E149540-45F7-45C7-8660-0EFBB7E0976B}">
@@ -64,12 +77,456 @@
     Should strictly be nb_no</t>
       </text>
     </comment>
+    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{E138FC8D-CF03-4DDC-BD49-5EE171CE701F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    information provided by web-junior (http://www.web-junior.net/)</t>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="2" shapeId="0" xr:uid="{868F32B0-D73B-4C01-B4A5-8B50AC93BC60}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CUBEKPIMEMBER		= КУБЭЛЕМЕНТКИП				##	Возвращает свойство ключевого индикатора производительности «(КИП)» и отображает имя «КИП» в ячейке. «КИП» представляет собой количественную величину, такую как ежемесячная валовая прибыль или ежеквартальная текучесть кадров, используемой для контроля эффективности работы организации.
+CUBEMEMBER		= КУБЭЛЕМЕНТ				##	Возвращает элемент или кортеж из куба. Используется для проверки существования элемента или кортежа в кубе.
+CUBEMEMBERPROPERTY	= КУБСВОЙСТВОЭЛЕМЕНТА			##	Возвращает значение свойства элемента из куба. Используется для проверки существования имени элемента в кубе и возвращает указанное свойство для этого элемента.
+CUBERANKEDMEMBER	= КУБПОРЭЛЕМЕНТ				##	Возвращает n-ый или ранжированный элемент в множество. Используется для возвращения одного или нескольких элементов в множество, например, лучшего продавца или 10 лучших студентов.
+CUBESET			= КУБМНОЖ				##	Определяет вычислительное множество элементов или кортежей, отправляя на сервер выражение, которое создает множество, а затем возвращает его в Microsoft Office Excel.
+CUBESETCOUNT		= КУБЧИСЛОЭЛМНОЖ			##	Возвращает число элементов множества.
+CUBEVALUE		= КУБЗНАЧЕНИЕ				##	Возвращает обобщенное значение из куба.</t>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="3" shapeId="0" xr:uid="{61F71480-555F-404F-870F-9E9DFD41D0BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DAVERAGE		= ДСРЗНАЧ				##	Возвращает среднее значение выбранных записей базы данных.
+DCOUNT			= БСЧЁТ					##	Подсчитывает количество числовых ячеек в базе данных.
+DCOUNTA			= БСЧЁТА				##	Подсчитывает количество непустых ячеек в базе данных.
+DGET			= БИЗВЛЕЧЬ				##	Извлекает из базы данных одну запись, удовлетворяющую заданному условию.
+DMAX			= ДМАКС					##	Возвращает максимальное значение среди выделенных записей базы данных.
+DMIN			= ДМИН					##	Возвращает минимальное значение среди выделенных записей базы данных.
+DPRODUCT		= БДПРОИЗВЕД				##	Перемножает значения определенного поля в записях базы данных, удовлетворяющих условию.
+DSTDEV			= ДСТАНДОТКЛ				##	Оценивает стандартное отклонение по выборке для выделенных записей базы данных.
+DSTDEVP			= ДСТАНДОТКЛП				##	Вычисляет стандартное отклонение по генеральной совокупности для выделенных записей базы данных
+DSUM			= БДСУММ				##	Суммирует числа в поле для записей базы данных, удовлетворяющих условию.
+DVAR			= БДДИСП				##	Оценивает дисперсию по выборке из выделенных записей базы данных
+DVARP			= БДДИСПП				##	Вычисляет дисперсию по генеральной совокупности для выделенных записей базы данных</t>
+      </text>
+    </comment>
+    <comment ref="S27" authorId="4" shapeId="0" xr:uid="{C02634D7-5549-4BEC-A659-237ECEFD000F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DATE			= ДАТА					##	Возвращает заданную дату в числовом формате.
+DATEVALUE		= ДАТАЗНАЧ				##	Преобразует дату из текстового формата в числовой формат.
+DAY			= ДЕНЬ					##	Преобразует дату в числовом формате в день месяца.
+DAYS360			= ДНЕЙ360				##	Вычисляет количество дней между двумя датами на основе 360-дневного года.
+EDATE			= ДАТАМЕС				##	Возвращает дату в числовом формате, отстоящую на заданное число месяцев вперед или назад от начальной даты.
+EOMONTH			= КОНМЕСЯЦА				##	Возвращает дату в числовом формате для последнего дня месяца, отстоящего вперед или назад на заданное число месяцев.
+HOUR			= ЧАС					##	Преобразует дату в числовом формате в часы.
+MINUTE			= МИНУТЫ				##	Преобразует дату в числовом формате в минуты.
+MONTH			= МЕСЯЦ					##	Преобразует дату в числовом формате в месяцы.
+NETWORKDAYS		= ЧИСТРАБДНИ				##	Возвращает количество рабочих дней между двумя датами.
+NOW			= ТДАТА					##	Возвращает текущую дату и время в числовом формате.
+SECOND			= СЕКУНДЫ				##	Преобразует дату в числовом формате в секунды.
+TIME			= ВРЕМЯ					##	Возвращает заданное время в числовом формате.
+TIMEVALUE		= ВРЕМЗНАЧ				##	Преобразует время из текстового формата в числовой формат.
+TODAY			= СЕГОДНЯ				##	Возвращает текущую дату в числовом формате.
+WEEKDAY			= ДЕНЬНЕД				##	Преобразует дату в числовом формате в день недели.
+WEEKNUM			= НОМНЕДЕЛИ				##	Преобразует числовое представление в число, которое указывает, на какую неделю года приходится указанная дата.
+WORKDAY			= РАБДЕНЬ				##	Возвращает дату в числовом формате, отстоящую вперед или назад на заданное количество рабочих дней.
+YEAR			= ГОД					##	Преобразует дату в числовом формате в год.
+YEARFRAC		= ДОЛЯГОДА				##	Возвращает долю года, которую составляет количество дней между начальной и конечной датами.</t>
+      </text>
+    </comment>
+    <comment ref="S58" authorId="5" shapeId="0" xr:uid="{BB970519-C2C0-4441-B343-F13D4CD744BE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    BESSELI			= БЕССЕЛЬ.I	 			##	Возвращает модифицированную функцию Бесселя In(x).
+BESSELJ			= БЕССЕЛЬ.J				##	Возвращает функцию Бесселя Jn(x).
+BESSELK			= БЕССЕЛЬ.K				##	Возвращает модифицированную функцию Бесселя Kn(x).
+BESSELY			= БЕССЕЛЬ.Y				##	Возвращает функцию Бесселя Yn(x).
+BIN2DEC			= ДВ.В.ДЕС				##	Преобразует двоичное число в десятичное.
+BIN2HEX			= ДВ.В.ШЕСТН				##	Преобразует двоичное число в шестнадцатеричное.
+BIN2OCT			= ДВ.В.ВОСЬМ				##	Преобразует двоичное число в восьмеричное.
+COMPLEX			= КОМПЛЕКСН				##	Преобразует коэффициенты при вещественной и мнимой частях комплексного числа в комплексное число.
+CONVERT			= ПРЕОБР				##	Преобразует число из одной системы единиц измерения в другую.
+DEC2BIN			= ДЕС.В.ДВ				##	Преобразует десятичное число в двоичное.
+DEC2HEX			= ДЕС.В.ШЕСТН				##	Преобразует десятичное число в шестнадцатеричное.
+DEC2OCT			= ДЕС.В.ВОСЬМ				##	Преобразует десятичное число в восьмеричное.
+DELTA			= ДЕЛЬТА				##	Проверяет равенство двух значений.
+ERF			= ФОШ					##	Возвращает функцию ошибки.
+ERFC			= ДФОШ					##	Возвращает дополнительную функцию ошибки.
+GESTEP			= ПОРОГ					##	Проверяет, не превышает ли данное число порогового значения.
+HEX2BIN			= ШЕСТН.В.ДВ				##	Преобразует шестнадцатеричное число в двоичное.
+HEX2DEC			= ШЕСТН.В.ДЕС				##	Преобразует шестнадцатеричное число в десятичное.
+HEX2OCT			= ШЕСТН.В.ВОСЬМ				##	Преобразует шестнадцатеричное число в восьмеричное.
+IMABS			= МНИМ.ABS				##	Возвращает абсолютную величину (модуль) комплексного числа.
+IMAGINARY		= МНИМ.ЧАСТЬ				##	Возвращает коэффициент при мнимой части комплексного числа.
+IMARGUMENT		= МНИМ.АРГУМЕНТ				##	Возвращает значение аргумента комплексного числа (тета) — угол, выраженный в радианах.
+IMCONJUGATE		= МНИМ.СОПРЯЖ				##	Возвращает комплексно-сопряженное комплексное число.
+IMCOS			= МНИМ.COS				##	Возвращает косинус комплексного числа.
+IMDIV			= МНИМ.ДЕЛ				##	Возвращает частное от деления двух комплексных чисел.
+IMEXP			= МНИМ.EXP				##	Возвращает экспоненту комплексного числа.
+IMLN			= МНИМ.LN				##	Возвращает натуральный логарифм комплексного числа.
+IMLOG10			= МНИМ.LOG10				##	Возвращает обычный (десятичный) логарифм комплексного числа.
+IMLOG2			= МНИМ.LOG2				##	Возвращает двоичный логарифм комплексного числа.
+IMPOWER			= МНИМ.СТЕПЕНЬ				##	Возвращает комплексное число, возведенное в целую степень.
+IMPRODUCT		= МНИМ.ПРОИЗВЕД				##	Возвращает произведение от 2 до 29 комплексных чисел.
+IMREAL			= МНИМ.ВЕЩ				##	Возвращает коэффициент при вещественной части комплексного числа.
+IMSIN			= МНИМ.SIN				##	Возвращает синус комплексного числа.
+IMSQRT			= МНИМ.КОРЕНЬ				##	Возвращает значение квадратного корня из комплексного числа.
+IMSUB			= МНИМ.РАЗН				##	Возвращает разность двух комплексных чисел.
+IMSUM			= МНИМ.СУММ				##	Возвращает сумму комплексных чисел.
+OCT2BIN			= ВОСЬМ.В.ДВ				##	Преобразует восьмеричное число в двоичное.
+OCT2DEC			= ВОСЬМ.В.ДЕС				##	Преобразует восьмеричное число в десятичное.
+OCT2HEX			= ВОСЬМ.В.ШЕСТН				##	Преобразует восьмеричное число в шестнадцатеричное.</t>
+      </text>
+    </comment>
+    <comment ref="S114" authorId="6" shapeId="0" xr:uid="{915F01F8-B93F-4634-A958-C88DB26A4489}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ACCRINT			= НАКОПДОХОД				##	Возвращает накопленный процент по ценным бумагам с периодической выплатой процентов.
+ACCRINTM		= НАКОПДОХОДПОГАШ			##	Возвращает накопленный процент по ценным бумагам, проценты по которым выплачиваются в срок погашения.
+AMORDEGRC		= АМОРУМ				##	Возвращает величину амортизации для каждого периода, используя коэффициент амортизации.
+AMORLINC		= АМОРУВ				##	Возвращает величину амортизации для каждого периода.
+COUPDAYBS		= ДНЕЙКУПОНДО				##	Возвращает количество дней от начала действия купона до даты соглашения.
+COUPDAYS		= ДНЕЙКУПОН				##	Возвращает число дней в периоде купона, содержащем дату соглашения.
+COUPDAYSNC		= ДНЕЙКУПОНПОСЛЕ			##	Возвращает число дней от даты соглашения до срока следующего купона.
+COUPNCD			= ДАТАКУПОНПОСЛЕ			##	Возвращает следующую дату купона после даты соглашения.
+COUPNUM			= ЧИСЛКУПОН				##	Возвращает количество купонов, которые могут быть оплачены между датой соглашения и сроком вступления в силу.
+COUPPCD			= ДАТАКУПОНДО				##	Возвращает предыдущую дату купона перед датой соглашения.
+CUMIPMT			= ОБЩПЛАТ				##	Возвращает общую выплату, произведенную между двумя периодическими выплатами.
+CUMPRINC		= ОБЩДОХОД				##	Возвращает общую выплату по займу между двумя периодами.
+DB			= ФУО					##	Возвращает величину амортизации актива для заданного периода, рассчитанную методом фиксированного уменьшения остатка.
+DDB			= ДДОБ					##	Возвращает величину амортизации актива за данный период, используя метод двойного уменьшения остатка или иной явно указанный метод.
+DISC			= СКИДКА				##	Возвращает норму скидки для ценных бумаг.
+DOLLARDE		= РУБЛЬ.ДЕС				##	Преобразует цену в рублях, выраженную в виде дроби, в цену в рублях, выраженную десятичным числом.
+DOLLARFR		= РУБЛЬ.ДРОБЬ				##	Преобразует цену в рублях, выраженную десятичным числом, в цену в рублях, выраженную в виде дроби.
+DURATION		= ДЛИТ					##	Возвращает ежегодную продолжительность действия ценных бумаг с периодическими выплатами по процентам.
+EFFECT			= ЭФФЕКТ				##	Возвращает действующие ежегодные процентные ставки.
+FV			= БС					##	Возвращает будущую стоимость инвестиции.
+FVSCHEDULE		= БЗРАСПИС				##	Возвращает будущую стоимость первоначальной основной суммы после начисления ряда сложных процентов.
+INTRATE			= ИНОРМА				##	Возвращает процентную ставку для полностью инвестированных ценных бумаг.
+IPMT			= ПРПЛТ					##	Возвращает величину выплаты прибыли на вложения за данный период.
+IRR			= ВСД					##	Возвращает внутреннюю ставку доходности для ряда потоков денежных средств.
+ISPMT			= ПРОЦПЛАТ				##	Вычисляет выплаты за указанный период инвестиции.
+MDURATION		= МДЛИТ					##	Возвращает модифицированную длительность Маколея для ценных бумаг с предполагаемой номинальной стоимостью 100 рублей.
+MIRR			= МВСД					##	Возвращает внутреннюю ставку доходности, при которой положительные и отрицательные денежные потоки имеют разные значения ставки.
+NOMINAL			= НОМИНАЛ				##	Возвращает номинальную годовую процентную ставку.
+NPER			= КПЕР					##	Возвращает общее количество периодов выплаты для данного вклада.
+NPV			= ЧПС					##	Возвращает чистую приведенную стоимость инвестиции, основанной на серии периодических денежных потоков и ставке дисконтирования.
+ODDFPRICE		= ЦЕНАПЕРВНЕРЕГ				##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг с нерегулярным первым периодом.
+ODDFYIELD		= ДОХОДПЕРВНЕРЕГ			##	Возвращает доход по ценным бумагам с нерегулярным первым периодом.
+ODDLPRICE		= ЦЕНАПОСЛНЕРЕГ				##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг с нерегулярным последним периодом.
+ODDLYIELD		= ДОХОДПОСЛНЕРЕГ			##	Возвращает доход по ценным бумагам с нерегулярным последним периодом.
+PMT			= ПЛТ					##	Возвращает величину выплаты за один период аннуитета.
+PPMT			= ОСПЛТ					##	Возвращает величину выплат в погашение основной суммы по инвестиции за заданный период.
+PRICE			= ЦЕНА					##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг, по которым производится периодическая выплата процентов.
+PRICEDISC		= ЦЕНАСКИДКА				##	Возвращает цену за 100 рублей номинальной стоимости ценных бумаг, на которые сделана скидка.
+PRICEMAT		= ЦЕНАПОГАШ				##	Возвращает цену за 100 рублей номинальной стоимости ценных бумаг, проценты по которым выплачиваются в срок погашения.
+PV			= ПС					##	Возвращает приведенную (к текущему моменту) стоимость инвестиции.
+RATE			= СТАВКА				##	Возвращает процентную ставку по аннуитету за один период.
+RECEIVED		= ПОЛУЧЕНО				##	Возвращает сумму, полученную к сроку погашения полностью обеспеченных ценных бумаг.
+SLN			= АПЛ					##	Возвращает величину линейной амортизации актива за один период.
+SYD			= АСЧ					##	Возвращает величину амортизации актива за данный период, рассчитанную методом суммы годовых чисел.
+TBILLEQ			= РАВНОКЧЕК				##	Возвращает эквивалентный облигации доход по казначейскому чеку.
+TBILLPRICE		= ЦЕНАКЧЕК				##	Возвращает цену за 100 рублей нарицательной стоимости для казначейского чека.
+TBILLYIELD		= ДОХОДКЧЕК				##	Возвращает доход по казначейскому чеку.
+VDB			= ПУО					##	Возвращает величину амортизации актива для указанного или частичного периода при использовании метода сокращающегося баланса.
+XIRR			= ЧИСТВНДОХ				##	Возвращает внутреннюю ставку доходности для графика денежных потоков, которые не обязательно носят периодический характер.
+XNPV			= ЧИСТНЗ				##	Возвращает чистую приведенную стоимость для денежных потоков, которые не обязательно являются периодическими.
+YIELD			= ДОХОД					##	Возвращает доход от ценных бумаг, по которым производятся периодические выплаты процентов.
+YIELDDISC		= ДОХОДСКИДКА				##	Возвращает годовой доход по ценным бумагам, на которые сделана скидка (пример — казначейские чеки).
+YIELDMAT		= ДОХОДПОГАШ				##	Возвращает годовой доход от ценных бумаг, проценты по которым выплачиваются в срок погашения.</t>
+      </text>
+    </comment>
+    <comment ref="S172" authorId="7" shapeId="0" xr:uid="{FF6A9B1E-172D-419A-AE26-363E0061308C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CELL			= ЯЧЕЙКА				##	Возвращает информацию о формате, расположении или содержимом ячейки.
+ERROR.TYPE		= ТИП.ОШИБКИ				##	Возвращает числовой код, соответствующий типу ошибки.
+INFO			= ИНФОРМ				##	Возвращает информацию о текущей операционной среде.
+ISBLANK			= ЕПУСТО				##	Возвращает значение ИСТИНА, если аргумент является ссылкой на пустую ячейку.
+ISERR			= ЕОШ					##	Возвращает значение ИСТИНА, если аргумент ссылается на любое значение ошибки, кроме #Н/Д.
+ISERROR			= ЕОШИБКА				##	Возвращает значение ИСТИНА, если аргумент ссылается на любое значение ошибки.
+ISEVEN			= ЕЧЁТН					##	Возвращает значение ИСТИНА, если значение аргумента является четным числом.
+ISLOGICAL		= ЕЛОГИЧ				##	Возвращает значение ИСТИНА, если аргумент ссылается на логическое значение.
+ISNA			= ЕНД					##	Возвращает значение ИСТИНА, если аргумент ссылается на значение ошибки #Н/Д.
+ISNONTEXT		= ЕНЕТЕКСТ				##	Возвращает значение ИСТИНА, если значение аргумента не является текстом.
+ISNUMBER		= ЕЧИСЛО				##	Возвращает значение ИСТИНА, если аргумент ссылается на число.
+ISODD			= ЕНЕЧЁТ				##	Возвращает значение ИСТИНА, если значение аргумента является нечетным числом.
+ISREF			= ЕССЫЛКА				##	Возвращает значение ИСТИНА, если значение аргумента является ссылкой.
+ISTEXT			= ЕТЕКСТ				##	Возвращает значение ИСТИНА, если значение аргумента является текстом.
+N			= Ч					##	Возвращает значение, преобразованное в число.
+NA			= НД					##	Возвращает значение ошибки #Н/Д.
+TYPE			= ТИП					##	Возвращает число, обозначающее тип данных значения.</t>
+      </text>
+    </comment>
+    <comment ref="S195" authorId="8" shapeId="0" xr:uid="{CACDDDBD-012F-4F2F-8457-4FF52EB4D2D0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    AND			= И					##	Renvoie VRAI si tous ses arguments sont VRAI.
+FALSE			= ЛОЖЬ					##	Возвращает логическое значение ЛОЖЬ.
+IF			= ЕСЛИ					##	Выполняет проверку условия.
+IFERROR			= ЕСЛИОШИБКА				##	Возвращает введённое значение, если вычисление по формуле вызывает ошибку; в противном случае функция возвращает результат вычисления.
+NOT			= НЕ					##	Меняет логическое значение своего аргумента на противоположное.
+OR			= ИЛИ					##	Возвращает значение ИСТИНА, если хотя бы один аргумент имеет значение ИСТИНА.
+TRUE			= ИСТИНА				##	Возвращает логическое значение ИСТИНА.</t>
+      </text>
+    </comment>
+    <comment ref="S216" authorId="9" shapeId="0" xr:uid="{3B6725E7-9A95-45C6-BAD0-BB4C900C4B9F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ADDRESS			= АДРЕС					##	Возвращает ссылку на отдельную ячейку листа в виде текста.
+AREAS			= ОБЛАСТИ				##	Возвращает количество областей в ссылке.
+CHOOSE			= ВЫБОР					##	Выбирает значение из списка значений по индексу.
+COLUMN			= СТОЛБЕЦ				##	Возвращает номер столбца, на который указывает ссылка.
+COLUMNS			= ЧИСЛСТОЛБ				##	Возвращает количество столбцов в ссылке.
+HLOOKUP			= ГПР					##	Ищет в первой строке массива и возвращает значение отмеченной ячейки
+HYPERLINK		= ГИПЕРССЫЛКА				##	Создает ссылку, открывающую документ, который находится на сервере сети, в интрасети или в Интернете.
+INDEX			= ИНДЕКС				##	Использует индекс для выбора значения из ссылки или массива.
+INDIRECT		= ДВССЫЛ				##	Возвращает ссылку, заданную текстовым значением.
+LOOKUP			= ПРОСМОТР				##	Ищет значения в векторе или массиве.
+MATCH			= ПОИСКПОЗ				##	Ищет значения в ссылке или массиве.
+OFFSET			= СМЕЩ					##	Возвращает смещение ссылки относительно заданной ссылки.
+ROW			= СТРОКА				##	Возвращает номер строки, определяемой ссылкой.
+ROWS			= ЧСТРОК				##	Возвращает количество строк в ссылке.
+RTD			= ДРВ					##	Извлекает данные реального времени из программ, поддерживающих автоматизацию COM (Программирование объектов. Стандартное средство для работы с объектами некоторого приложения из другого приложения или средства разработки. Программирование объектов (ранее называемое программированием OLE) является функцией модели COM (Component Object Model, модель компонентных объектов).).
+TRANSPOSE		= ТРАНСП				##	Возвращает транспонированный массив.
+VLOOKUP			= ВПР					##	Ищет значение в первом столбце массива и возвращает значение из ячейки в найденной строке и указанном столбце.</t>
+      </text>
+    </comment>
+    <comment ref="S224" authorId="10" shapeId="0" xr:uid="{6005DC7F-03C9-4B1E-B445-787F12B5B7BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ##	Add-in and Automation functions				Функции надстроек и автоматизации
+##
+GETPIVOTDATA		= ПОЛУЧИТЬ.ДАННЫЕ.СВОДНОЙ.ТАБЛИЦЫ	##	Возвращает данные, хранящиеся в отчете сводной таблицы.</t>
+      </text>
+    </comment>
+    <comment ref="S244" authorId="11" shapeId="0" xr:uid="{5539F2F5-C7CE-40CC-84E7-73C614DD1C3A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ABS			= ABS					##	Возвращает модуль (абсолютную величину) числа.
+ACOS			= ACOS					##	Возвращает арккосинус числа.
+ACOSH			= ACOSH					##	Возвращает гиперболический арккосинус числа.
+ASIN			= ASIN					##	Возвращает арксинус числа.
+ASINH			= ASINH					##	Возвращает гиперболический арксинус числа.
+ATAN			= ATAN					##	Возвращает арктангенс числа.
+ATAN2			= ATAN2					##	Возвращает арктангенс для заданных координат x и y.
+ATANH			= ATANH					##	Возвращает гиперболический арктангенс числа.
+CEILING			= ОКРВВЕРХ				##	Округляет число до ближайшего целого или до ближайшего кратного указанному значению.
+COMBIN			= ЧИСЛКОМБ				##	Возвращает количество комбинаций для заданного числа объектов.
+COS			= COS					##	Возвращает косинус числа.
+COSH			= COSH					##	Возвращает гиперболический косинус числа.
+DEGREES			= ГРАДУСЫ				##	Преобразует радианы в градусы.
+EVEN			= ЧЁТН					##	Округляет число до ближайшего четного целого.
+EXP			= EXP					##	Возвращает число e, возведенное в указанную степень.
+FACT			= ФАКТР					##	Возвращает факториал числа.
+FACTDOUBLE		= ДВФАКТР				##	Возвращает двойной факториал числа.
+FLOOR			= ОКРВНИЗ				##	Округляет число до ближайшего меньшего по модулю значения.
+GCD			= НОД					##	Возвращает наибольший общий делитель.
+INT			= ЦЕЛОЕ					##	Округляет число до ближайшего меньшего целого.
+LCM			= НОК					##	Возвращает наименьшее общее кратное.
+LN			= LN					##	Возвращает натуральный логарифм числа.
+LOG			= LOG					##	Возвращает логарифм числа по заданному основанию.
+LOG10			= LOG10					##	Возвращает десятичный логарифм числа.
+MDETERM			= МОПРЕД				##	Возвращает определитель матрицы массива.
+MINVERSE		= МОБР					##	Возвращает обратную матрицу массива.
+MMULT			= МУМНОЖ				##	Возвращает произведение матриц двух массивов.
+MOD			= ОСТАТ					##	Возвращает остаток от деления.
+MROUND			= ОКРУГЛТ				##	Возвращает число, округленное с требуемой точностью.
+MULTINOMIAL		= МУЛЬТИНОМ				##	Возвращает мультиномиальный коэффициент множества чисел.
+ODD			= НЕЧЁТ					##	Округляет число до ближайшего нечетного целого.
+PI			= ПИ					##	Возвращает число пи.
+POWER			= СТЕПЕНЬ				##	Возвращает результат возведения числа в степень.
+PRODUCT			= ПРОИЗВЕД				##	Возвращает произведение аргументов.
+QUOTIENT		= ЧАСТНОЕ				##	Возвращает целую часть частного при делении.
+RADIANS			= РАДИАНЫ				##	Преобразует градусы в радианы.
+RAND			= СЛЧИС					##	Возвращает случайное число в интервале от 0 до 1.
+RANDBETWEEN		= СЛУЧМЕЖДУ				##	Возвращает случайное число в интервале между двумя заданными числами.
+ROMAN			= РИМСКОЕ				##	Преобразует арабские цифры в римские в виде текста.
+ROUND			= ОКРУГЛ				##	Округляет число до указанного количества десятичных разрядов.
+ROUNDDOWN		= ОКРУГЛВНИЗ				##	Округляет число до ближайшего меньшего по модулю значения.
+ROUNDUP			= ОКРУГЛВВЕРХ				##	Округляет число до ближайшего большего по модулю значения.
+SERIESSUM		= РЯД.СУММ				##	Возвращает сумму степенного ряда, вычисленную по формуле.
+SIGN			= ЗНАК					##	Возвращает знак числа.
+SIN			= SIN					##	Возвращает синус заданного угла.
+SINH			= SINH					##	Возвращает гиперболический синус числа.
+SQRT			= КОРЕНЬ				##	Возвращает положительное значение квадратного корня.
+SQRTPI			= КОРЕНЬПИ				##	Возвращает квадратный корень из значения выражения (число * ПИ).
+SUBTOTAL		= ПРОМЕЖУТОЧНЫЕ.ИТОГИ			##	Возвращает промежуточный итог в списке или базе данных.
+SUM			= СУММ					##	Суммирует аргументы.
+SUMIF			= СУММЕСЛИ				##	Суммирует ячейки, удовлетворяющие заданному условию.
+SUMIFS			= СУММЕСЛИМН				##	Суммирует диапазон ячеек, удовлетворяющих нескольким условиям.
+SUMPRODUCT		= СУММПРОИЗВ				##	Возвращает сумму произведений соответствующих элементов массивов.
+SUMSQ			= СУММКВ				##	Возвращает сумму квадратов аргументов.
+SUMX2MY2		= СУММРАЗНКВ				##	Возвращает сумму разностей квадратов соответствующих значений в двух массивах.
+SUMX2PY2		= СУММСУММКВ				##	Возвращает сумму сумм квадратов соответствующих элементов двух массивов.
+SUMXMY2			= СУММКВРАЗН				##	Возвращает сумму квадратов разностей соответствующих значений в двух массивах.
+TAN			= TAN					##	Возвращает тангенс числа.
+TANH			= TANH					##	Возвращает гиперболический тангенс числа.
+TRUNC			= ОТБР					##	Отбрасывает дробную часть числа.</t>
+      </text>
+    </comment>
+    <comment ref="S339" authorId="12" shapeId="0" xr:uid="{0BC0B73F-15BC-4022-959C-D8A0FF6F60FB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    AVEDEV			= СРОТКЛ				##	Возвращает среднее арифметическое абсолютных значений отклонений точек данных от среднего.
+AVERAGE			= СРЗНАЧ				##	Возвращает среднее арифметическое аргументов.
+AVERAGEA		= СРЗНАЧА				##	Возвращает среднее арифметическое аргументов, включая числа, текст и логические значения.
+AVERAGEIF		= СРЗНАЧЕСЛИ 				##	Возвращает среднее значение (среднее арифметическое) всех ячеек в диапазоне, которые удовлетворяют данному условию.
+AVERAGEIFS		= СРЗНАЧЕСЛИМН 				##	Возвращает среднее значение (среднее арифметическое) всех ячеек, которые удовлетворяют нескольким условиям.
+BETADIST		= БЕТАРАСП				##	Возвращает интегральную функцию бета-распределения.
+BETAINV			= БЕТАОБР				##	Возвращает обратную интегральную функцию указанного бета-распределения.
+BINOMDIST		= БИНОМРАСП				##	Возвращает отдельное значение биномиального распределения.
+CHIDIST			= ХИ2РАСП				##	Возвращает одностороннюю вероятность распределения хи-квадрат.
+CHIINV			= ХИ2ОБР				##	Возвращает обратное значение односторонней вероятности распределения хи-квадрат.
+CHITEST			= ХИ2ТЕСТ				##	Возвращает тест на независимость.
+CONFIDENCE		= ДОВЕРИТ				##	Возвращает доверительный интервал для среднего значения по генеральной совокупности.
+CORREL			= КОРРЕЛ				##	Возвращает коэффициент корреляции между двумя множествами данных.
+COUNT			= СЧЁТ					##	Подсчитывает количество чисел в списке аргументов.
+COUNTA			= СЧЁТЗ					##	Подсчитывает количество значений в списке аргументов.
+COUNTBLANK		= СЧИТАТЬПУСТОТЫ			##	Подсчитывает количество пустых ячеек в диапазоне
+COUNTIF			= СЧЁТЕСЛИ 				##	Подсчитывает количество ячеек в диапазоне, удовлетворяющих заданному условию
+COUNTIFS		= СЧЁТЕСЛИМН				##	Подсчитывает количество ячеек внутри диапазона, удовлетворяющих нескольким условиям.
+COVAR			= КОВАР					##	Возвращает ковариацию, среднее произведений парных отклонений
+CRITBINOM		= КРИТБИНОМ				##	Возвращает наименьшее значение, для которого интегральное биномиальное распределение меньше или равно заданному критерию.
+DEVSQ			= КВАДРОТКЛ				##	Возвращает сумму квадратов отклонений.
+EXPONDIST		= ЭКСПРАСП				##	Возвращает экспоненциальное распределение.
+FDIST			= FРАСП					##	Возвращает F-распределение вероятности.
+FINV			= FРАСПОБР				##	Возвращает обратное значение для F-распределения вероятности.
+FISHER			= ФИШЕР					##	Возвращает преобразование Фишера.
+FISHERINV		= ФИШЕРОБР				##	Возвращает обратное преобразование Фишера.
+FORECAST		= ПРЕДСКАЗ				##	Возвращает значение линейного тренда.
+FREQUENCY		= ЧАСТОТА				##	Возвращает распределение частот в виде вертикального массива.
+FTEST			= ФТЕСТ					##	Возвращает результат F-теста.
+GAMMADIST		= ГАММАРАСП				##	Возвращает гамма-распределение.
+GAMMAINV		= ГАММАОБР				##	Возвращает обратное гамма-распределение.
+GAMMALN			= ГАММАНЛОГ				##	Возвращает натуральный логарифм гамма функции, Γ(x).
+GEOMEAN			= СРГЕОМ				##	Возвращает среднее геометрическое.
+GROWTH			= РОСТ					##	Возвращает значения в соответствии с экспоненциальным трендом.
+HARMEAN			= СРГАРМ				##	Возвращает среднее гармоническое.
+HYPGEOMDIST		= ГИПЕРГЕОМЕТ				##	Возвращает гипергеометрическое распределение.
+INTERCEPT		= ОТРЕЗОК				##	Возвращает отрезок, отсекаемый на оси линией линейной регрессии.
+KURT			= ЭКСЦЕСС				##	Возвращает эксцесс множества данных.
+LARGE			= НАИБОЛЬШИЙ				##	Возвращает k-ое наибольшее значение в множестве данных.
+LINEST			= ЛИНЕЙН				##	Возвращает параметры линейного тренда.
+LOGEST			= ЛГРФПРИБЛ				##	Возвращает параметры экспоненциального тренда.
+LOGINV			= ЛОГНОРМОБР				##	Возвращает обратное логарифмическое нормальное распределение.
+LOGNORMDIST		= ЛОГНОРМРАСП				##	Возвращает интегральное логарифмическое нормальное распределение.
+MAX			= МАКС					##	Возвращает наибольшее значение в списке аргументов.
+MAXA			= МАКСА					##	Возвращает наибольшее значение в списке аргументов, включая числа, текст и логические значения.
+MEDIAN			= МЕДИАНА				##	Возвращает медиану заданных чисел.
+MIN			= МИН					##	Возвращает наименьшее значение в списке аргументов.
+MINA			= МИНА					##	Возвращает наименьшее значение в списке аргументов, включая числа, текст и логические значения.
+MODE			= МОДА					##	Возвращает значение моды множества данных.
+NEGBINOMDIST		= ОТРБИНОМРАСП				##	Возвращает отрицательное биномиальное распределение.
+NORMDIST		= НОРМРАСП				##	Возвращает нормальную функцию распределения.
+NORMINV			= НОРМОБР				##	Возвращает обратное нормальное распределение.
+NORMSDIST		= НОРМСТРАСП				##	Возвращает стандартное нормальное интегральное распределение.
+NORMSINV		= НОРМСТОБР				##	Возвращает обратное значение стандартного нормального распределения.
+PEARSON			= ПИРСОН				##	Возвращает коэффициент корреляции Пирсона.
+PERCENTILE		= ПЕРСЕНТИЛЬ				##	Возвращает k-ую персентиль для значений диапазона.
+PERCENTRANK		= ПРОЦЕНТРАНГ				##	Возвращает процентную норму значения в множестве данных.
+PERMUT			= ПЕРЕСТ				##	Возвращает количество перестановок для заданного числа объектов.
+POISSON			= ПУАССОН				##	Возвращает распределение Пуассона.
+PROB			= ВЕРОЯТНОСТЬ				##	Возвращает вероятность того, что значение из диапазона находится внутри заданных пределов.
+QUARTILE		= КВАРТИЛЬ				##	Возвращает квартиль множества данных.
+RANK			= РАНГ					##	Возвращает ранг числа в списке чисел.
+RSQ			= КВПИРСОН				##	Возвращает квадрат коэффициента корреляции Пирсона.
+SKEW			= СКОС					##	Возвращает асимметрию распределения.
+SLOPE			= НАКЛОН				##	Возвращает наклон линии линейной регрессии.
+SMALL			= НАИМЕНЬШИЙ				##	Возвращает k-ое наименьшее значение в множестве данных.
+STANDARDIZE		= НОРМАЛИЗАЦИЯ				##	Возвращает нормализованное значение.
+STDEV			= СТАНДОТКЛОН				##	Оценивает стандартное отклонение по выборке.
+STDEVA			= СТАНДОТКЛОНА				##	Оценивает стандартное отклонение по выборке, включая числа, текст и логические значения.
+STDEVP			= СТАНДОТКЛОНП				##	Вычисляет стандартное отклонение по генеральной совокупности.
+STDEVPA			= СТАНДОТКЛОНПА				##	Вычисляет стандартное отклонение по генеральной совокупности, включая числа, текст и логические значения.
+STEYX			= СТОШYX				##	Возвращает стандартную ошибку предсказанных значений y для каждого значения x в регрессии.
+TDIST			= СТЬЮДРАСП				##	Возвращает t-распределение Стьюдента.
+TINV			= СТЬЮДРАСПОБР				##	Возвращает обратное t-распределение Стьюдента.
+TREND			= ТЕНДЕНЦИЯ				##	Возвращает значения в соответствии с линейным трендом.
+TRIMMEAN		= УРЕЗСРЕДНЕЕ				##	Возвращает среднее внутренности множества данных.
+TTEST			= ТТЕСТ					##	Возвращает вероятность, соответствующую критерию Стьюдента.
+VAR			= ДИСП					##	Оценивает дисперсию по выборке.
+VARA			= ДИСПА					##	Оценивает дисперсию по выборке, включая числа, текст и логические значения.
+VARP			= ДИСПР					##	Вычисляет дисперсию для генеральной совокупности.
+VARPA			= ДИСПРА				##	Вычисляет дисперсию для генеральной совокупности, включая числа, текст и логические значения.
+WEIBULL			= ВЕЙБУЛЛ				##	Возвращает распределение Вейбулла.
+ZTEST			= ZТЕСТ					##	Возвращает двустороннее P-значение z-теста.</t>
+      </text>
+    </comment>
+    <comment ref="S451" authorId="13" shapeId="0" xr:uid="{4BB940B1-F984-4562-9953-F98AB6C81E95}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ASC			= ASC					##	Для языков с двухбайтовыми наборами знаков (например, катакана) преобразует полноширинные (двухбайтовые) знаки в полуширинные (однобайтовые).
+BAHTTEXT		= БАТТЕКСТ				##	Преобразует число в текст, используя денежный формат ß (БАТ).
+CHAR			= СИМВОЛ				##	Возвращает знак с заданным кодом.
+CLEAN			= ПЕЧСИМВ				##	Удаляет все непечатаемые знаки из текста.
+CODE			= КОДСИМВ				##	Возвращает числовой код первого знака в текстовой строке.
+CONCATENATE		= СЦЕПИТЬ				##	Объединяет несколько текстовых элементов в один.
+DOLLAR			= РУБЛЬ					##	Преобразует число в текст, используя денежный формат.
+EXACT			= СОВПАД				##	Проверяет идентичность двух текстовых значений.
+FIND			= НАЙТИ					##	Ищет вхождения одного текстового значения в другом (с учетом регистра).
+FINDB			= НАЙТИБ				##	Ищет вхождения одного текстового значения в другом (с учетом регистра).
+FIXED			= ФИКСИРОВАННЫЙ				##	Форматирует число и преобразует его в текст с заданным числом десятичных знаков.
+JIS			= JIS					##	Для языков с двухбайтовыми наборами знаков (например, катакана) преобразует полуширинные (однобайтовые) знаки в текстовой строке в полноширинные (двухбайтовые).
+LEFT			= ЛЕВСИМВ				##	Возвращает крайние слева знаки текстового значения.
+LEFTB			= ЛЕВБ					##	Возвращает крайние слева знаки текстового значения.
+LEN			= ДЛСТР					##	Возвращает количество знаков в текстовой строке.
+LENB			= ДЛИНБ					##	Возвращает количество знаков в текстовой строке.
+LOWER			= СТРОЧН				##	Преобразует все буквы текста в строчные.
+MID			= ПСТР					##	Возвращает заданное число знаков из строки текста, начиная с указанной позиции.
+MIDB			= ПСТРБ					##	Возвращает заданное число знаков из строки текста, начиная с указанной позиции.
+PHONETIC		= PHONETIC				##	Извлекает фонетические (фуригана) знаки из текстовой строки.
+PROPER			= ПРОПНАЧ				##	Преобразует первую букву в каждом слове текста в прописную.
+REPLACE			= ЗАМЕНИТЬ				##	Заменяет знаки в тексте.
+REPLACEB		= ЗАМЕНИТЬБ				##	Заменяет знаки в тексте.
+REPT			= ПОВТОР				##	Повторяет текст заданное число раз.
+RIGHT			= ПРАВСИМВ				##	Возвращает крайние справа знаки текстовой строки.
+RIGHTB			= ПРАВБ					##	Возвращает крайние справа знаки текстовой строки.
+SEARCH			= ПОИСК					##	Ищет вхождения одного текстового значения в другом (без учета регистра).
+SEARCHB			= ПОИСКБ				##	Ищет вхождения одного текстового значения в другом (без учета регистра).
+SUBSTITUTE		= ПОДСТАВИТЬ				##	Заменяет в текстовой строке старый текст новым.
+T			= Т					##	Преобразует аргументы в текст.
+TEXT			= ТЕКСТ					##	Форматирует число и преобразует его в текст.
+TRIM			= СЖПРОБЕЛЫ				##	Удаляет из текста пробелы.
+UPPER			= ПРОПИСН				##	Преобразует все буквы текста в прописные.
+VALUE			= ЗНАЧЕН				##	Преобразует текстовый аргумент в число.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8665" uniqueCount="6565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9046" uniqueCount="6579">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -19764,13 +20221,55 @@
   </si>
   <si>
     <t>MAKEARRAY</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>English-UK</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>en_uk</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>български</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>лв</t>
+  </si>
+  <si>
+    <t>#ПРАЗНО!</t>
+  </si>
+  <si>
+    <t>#СТОЙНОСТ!</t>
+  </si>
+  <si>
+    <t>#РЕФ!</t>
+  </si>
+  <si>
+    <t>#ИМЕ?</t>
+  </si>
+  <si>
+    <t>Функции Куб</t>
+  </si>
+  <si>
+    <t>ПИРСОН</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -19783,6 +20282,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19814,10 +20327,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -19841,11 +20357,12 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Mark Baker" id="{84B2E884-52F6-4480-867C-B31E4990FC05}" userId="fcb674f5c04c1517" providerId="Windows Live"/>
+  <person displayName="Owen Leibman" id="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" userId="S::OwenLeibman@fico.com::ee9dd42c-bb58-41b9-9ae6-a75536fe8df9" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -20133,7 +20650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20151,6 +20668,391 @@
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="R1" dT="2021-05-16T22:05:10.68" personId="{84B2E884-52F6-4480-867C-B31E4990FC05}" id="{7E149540-45F7-45C7-8660-0EFBB7E0976B}">
     <text>Should strictly be nb_no</text>
+  </threadedComment>
+  <threadedComment ref="S1" dT="2023-08-22T03:04:00.25" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{E138FC8D-CF03-4DDC-BD49-5EE171CE701F}">
+    <text>information provided by web-junior (http://www.web-junior.net/)</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>1390761882</xltc2:checksum>
+        <xltc2:hyperlink startIndex="36" length="26" url="http://www.web-junior.net/"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="S4" dT="2023-08-22T02:47:43.44" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{868F32B0-D73B-4C01-B4A5-8B50AC93BC60}">
+    <text>CUBEKPIMEMBER		= КУБЭЛЕМЕНТКИП				##	Возвращает свойство ключевого индикатора производительности «(КИП)» и отображает имя «КИП» в ячейке. «КИП» представляет собой количественную величину, такую как ежемесячная валовая прибыль или ежеквартальная текучесть кадров, используемой для контроля эффективности работы организации.
+CUBEMEMBER		= КУБЭЛЕМЕНТ				##	Возвращает элемент или кортеж из куба. Используется для проверки существования элемента или кортежа в кубе.
+CUBEMEMBERPROPERTY	= КУБСВОЙСТВОЭЛЕМЕНТА			##	Возвращает значение свойства элемента из куба. Используется для проверки существования имени элемента в кубе и возвращает указанное свойство для этого элемента.
+CUBERANKEDMEMBER	= КУБПОРЭЛЕМЕНТ				##	Возвращает n-ый или ранжированный элемент в множество. Используется для возвращения одного или нескольких элементов в множество, например, лучшего продавца или 10 лучших студентов.
+CUBESET			= КУБМНОЖ				##	Определяет вычислительное множество элементов или кортежей, отправляя на сервер выражение, которое создает множество, а затем возвращает его в Microsoft Office Excel.
+CUBESETCOUNT		= КУБЧИСЛОЭЛМНОЖ			##	Возвращает число элементов множества.
+CUBEVALUE		= КУБЗНАЧЕНИЕ				##	Возвращает обобщенное значение из куба.</text>
+  </threadedComment>
+  <threadedComment ref="S13" dT="2023-08-22T02:48:50.33" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{61F71480-555F-404F-870F-9E9DFD41D0BC}">
+    <text>DAVERAGE		= ДСРЗНАЧ				##	Возвращает среднее значение выбранных записей базы данных.
+DCOUNT			= БСЧЁТ					##	Подсчитывает количество числовых ячеек в базе данных.
+DCOUNTA			= БСЧЁТА				##	Подсчитывает количество непустых ячеек в базе данных.
+DGET			= БИЗВЛЕЧЬ				##	Извлекает из базы данных одну запись, удовлетворяющую заданному условию.
+DMAX			= ДМАКС					##	Возвращает максимальное значение среди выделенных записей базы данных.
+DMIN			= ДМИН					##	Возвращает минимальное значение среди выделенных записей базы данных.
+DPRODUCT		= БДПРОИЗВЕД				##	Перемножает значения определенного поля в записях базы данных, удовлетворяющих условию.
+DSTDEV			= ДСТАНДОТКЛ				##	Оценивает стандартное отклонение по выборке для выделенных записей базы данных.
+DSTDEVP			= ДСТАНДОТКЛП				##	Вычисляет стандартное отклонение по генеральной совокупности для выделенных записей базы данных
+DSUM			= БДСУММ				##	Суммирует числа в поле для записей базы данных, удовлетворяющих условию.
+DVAR			= БДДИСП				##	Оценивает дисперсию по выборке из выделенных записей базы данных
+DVARP			= БДДИСПП				##	Вычисляет дисперсию по генеральной совокупности для выделенных записей базы данных</text>
+  </threadedComment>
+  <threadedComment ref="S27" dT="2023-08-22T02:50:56.22" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{C02634D7-5549-4BEC-A659-237ECEFD000F}">
+    <text>DATE			= ДАТА					##	Возвращает заданную дату в числовом формате.
+DATEVALUE		= ДАТАЗНАЧ				##	Преобразует дату из текстового формата в числовой формат.
+DAY			= ДЕНЬ					##	Преобразует дату в числовом формате в день месяца.
+DAYS360			= ДНЕЙ360				##	Вычисляет количество дней между двумя датами на основе 360-дневного года.
+EDATE			= ДАТАМЕС				##	Возвращает дату в числовом формате, отстоящую на заданное число месяцев вперед или назад от начальной даты.
+EOMONTH			= КОНМЕСЯЦА				##	Возвращает дату в числовом формате для последнего дня месяца, отстоящего вперед или назад на заданное число месяцев.
+HOUR			= ЧАС					##	Преобразует дату в числовом формате в часы.
+MINUTE			= МИНУТЫ				##	Преобразует дату в числовом формате в минуты.
+MONTH			= МЕСЯЦ					##	Преобразует дату в числовом формате в месяцы.
+NETWORKDAYS		= ЧИСТРАБДНИ				##	Возвращает количество рабочих дней между двумя датами.
+NOW			= ТДАТА					##	Возвращает текущую дату и время в числовом формате.
+SECOND			= СЕКУНДЫ				##	Преобразует дату в числовом формате в секунды.
+TIME			= ВРЕМЯ					##	Возвращает заданное время в числовом формате.
+TIMEVALUE		= ВРЕМЗНАЧ				##	Преобразует время из текстового формата в числовой формат.
+TODAY			= СЕГОДНЯ				##	Возвращает текущую дату в числовом формате.
+WEEKDAY			= ДЕНЬНЕД				##	Преобразует дату в числовом формате в день недели.
+WEEKNUM			= НОМНЕДЕЛИ				##	Преобразует числовое представление в число, которое указывает, на какую неделю года приходится указанная дата.
+WORKDAY			= РАБДЕНЬ				##	Возвращает дату в числовом формате, отстоящую вперед или назад на заданное количество рабочих дней.
+YEAR			= ГОД					##	Преобразует дату в числовом формате в год.
+YEARFRAC		= ДОЛЯГОДА				##	Возвращает долю года, которую составляет количество дней между начальной и конечной датами.</text>
+  </threadedComment>
+  <threadedComment ref="S58" dT="2023-08-22T02:51:58.85" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{BB970519-C2C0-4441-B343-F13D4CD744BE}">
+    <text>BESSELI			= БЕССЕЛЬ.I	 			##	Возвращает модифицированную функцию Бесселя In(x).
+BESSELJ			= БЕССЕЛЬ.J				##	Возвращает функцию Бесселя Jn(x).
+BESSELK			= БЕССЕЛЬ.K				##	Возвращает модифицированную функцию Бесселя Kn(x).
+BESSELY			= БЕССЕЛЬ.Y				##	Возвращает функцию Бесселя Yn(x).
+BIN2DEC			= ДВ.В.ДЕС				##	Преобразует двоичное число в десятичное.
+BIN2HEX			= ДВ.В.ШЕСТН				##	Преобразует двоичное число в шестнадцатеричное.
+BIN2OCT			= ДВ.В.ВОСЬМ				##	Преобразует двоичное число в восьмеричное.
+COMPLEX			= КОМПЛЕКСН				##	Преобразует коэффициенты при вещественной и мнимой частях комплексного числа в комплексное число.
+CONVERT			= ПРЕОБР				##	Преобразует число из одной системы единиц измерения в другую.
+DEC2BIN			= ДЕС.В.ДВ				##	Преобразует десятичное число в двоичное.
+DEC2HEX			= ДЕС.В.ШЕСТН				##	Преобразует десятичное число в шестнадцатеричное.
+DEC2OCT			= ДЕС.В.ВОСЬМ				##	Преобразует десятичное число в восьмеричное.
+DELTA			= ДЕЛЬТА				##	Проверяет равенство двух значений.
+ERF			= ФОШ					##	Возвращает функцию ошибки.
+ERFC			= ДФОШ					##	Возвращает дополнительную функцию ошибки.
+GESTEP			= ПОРОГ					##	Проверяет, не превышает ли данное число порогового значения.
+HEX2BIN			= ШЕСТН.В.ДВ				##	Преобразует шестнадцатеричное число в двоичное.
+HEX2DEC			= ШЕСТН.В.ДЕС				##	Преобразует шестнадцатеричное число в десятичное.
+HEX2OCT			= ШЕСТН.В.ВОСЬМ				##	Преобразует шестнадцатеричное число в восьмеричное.
+IMABS			= МНИМ.ABS				##	Возвращает абсолютную величину (модуль) комплексного числа.
+IMAGINARY		= МНИМ.ЧАСТЬ				##	Возвращает коэффициент при мнимой части комплексного числа.
+IMARGUMENT		= МНИМ.АРГУМЕНТ				##	Возвращает значение аргумента комплексного числа (тета) — угол, выраженный в радианах.
+IMCONJUGATE		= МНИМ.СОПРЯЖ				##	Возвращает комплексно-сопряженное комплексное число.
+IMCOS			= МНИМ.COS				##	Возвращает косинус комплексного числа.
+IMDIV			= МНИМ.ДЕЛ				##	Возвращает частное от деления двух комплексных чисел.
+IMEXP			= МНИМ.EXP				##	Возвращает экспоненту комплексного числа.
+IMLN			= МНИМ.LN				##	Возвращает натуральный логарифм комплексного числа.
+IMLOG10			= МНИМ.LOG10				##	Возвращает обычный (десятичный) логарифм комплексного числа.
+IMLOG2			= МНИМ.LOG2				##	Возвращает двоичный логарифм комплексного числа.
+IMPOWER			= МНИМ.СТЕПЕНЬ				##	Возвращает комплексное число, возведенное в целую степень.
+IMPRODUCT		= МНИМ.ПРОИЗВЕД				##	Возвращает произведение от 2 до 29 комплексных чисел.
+IMREAL			= МНИМ.ВЕЩ				##	Возвращает коэффициент при вещественной части комплексного числа.
+IMSIN			= МНИМ.SIN				##	Возвращает синус комплексного числа.
+IMSQRT			= МНИМ.КОРЕНЬ				##	Возвращает значение квадратного корня из комплексного числа.
+IMSUB			= МНИМ.РАЗН				##	Возвращает разность двух комплексных чисел.
+IMSUM			= МНИМ.СУММ				##	Возвращает сумму комплексных чисел.
+OCT2BIN			= ВОСЬМ.В.ДВ				##	Преобразует восьмеричное число в двоичное.
+OCT2DEC			= ВОСЬМ.В.ДЕС				##	Преобразует восьмеричное число в десятичное.
+OCT2HEX			= ВОСЬМ.В.ШЕСТН				##	Преобразует восьмеричное число в шестнадцатеричное.</text>
+  </threadedComment>
+  <threadedComment ref="S114" dT="2023-08-22T02:53:23.48" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{915F01F8-B93F-4634-A958-C88DB26A4489}">
+    <text>ACCRINT			= НАКОПДОХОД				##	Возвращает накопленный процент по ценным бумагам с периодической выплатой процентов.
+ACCRINTM		= НАКОПДОХОДПОГАШ			##	Возвращает накопленный процент по ценным бумагам, проценты по которым выплачиваются в срок погашения.
+AMORDEGRC		= АМОРУМ				##	Возвращает величину амортизации для каждого периода, используя коэффициент амортизации.
+AMORLINC		= АМОРУВ				##	Возвращает величину амортизации для каждого периода.
+COUPDAYBS		= ДНЕЙКУПОНДО				##	Возвращает количество дней от начала действия купона до даты соглашения.
+COUPDAYS		= ДНЕЙКУПОН				##	Возвращает число дней в периоде купона, содержащем дату соглашения.
+COUPDAYSNC		= ДНЕЙКУПОНПОСЛЕ			##	Возвращает число дней от даты соглашения до срока следующего купона.
+COUPNCD			= ДАТАКУПОНПОСЛЕ			##	Возвращает следующую дату купона после даты соглашения.
+COUPNUM			= ЧИСЛКУПОН				##	Возвращает количество купонов, которые могут быть оплачены между датой соглашения и сроком вступления в силу.
+COUPPCD			= ДАТАКУПОНДО				##	Возвращает предыдущую дату купона перед датой соглашения.
+CUMIPMT			= ОБЩПЛАТ				##	Возвращает общую выплату, произведенную между двумя периодическими выплатами.
+CUMPRINC		= ОБЩДОХОД				##	Возвращает общую выплату по займу между двумя периодами.
+DB			= ФУО					##	Возвращает величину амортизации актива для заданного периода, рассчитанную методом фиксированного уменьшения остатка.
+DDB			= ДДОБ					##	Возвращает величину амортизации актива за данный период, используя метод двойного уменьшения остатка или иной явно указанный метод.
+DISC			= СКИДКА				##	Возвращает норму скидки для ценных бумаг.
+DOLLARDE		= РУБЛЬ.ДЕС				##	Преобразует цену в рублях, выраженную в виде дроби, в цену в рублях, выраженную десятичным числом.
+DOLLARFR		= РУБЛЬ.ДРОБЬ				##	Преобразует цену в рублях, выраженную десятичным числом, в цену в рублях, выраженную в виде дроби.
+DURATION		= ДЛИТ					##	Возвращает ежегодную продолжительность действия ценных бумаг с периодическими выплатами по процентам.
+EFFECT			= ЭФФЕКТ				##	Возвращает действующие ежегодные процентные ставки.
+FV			= БС					##	Возвращает будущую стоимость инвестиции.
+FVSCHEDULE		= БЗРАСПИС				##	Возвращает будущую стоимость первоначальной основной суммы после начисления ряда сложных процентов.
+INTRATE			= ИНОРМА				##	Возвращает процентную ставку для полностью инвестированных ценных бумаг.
+IPMT			= ПРПЛТ					##	Возвращает величину выплаты прибыли на вложения за данный период.
+IRR			= ВСД					##	Возвращает внутреннюю ставку доходности для ряда потоков денежных средств.
+ISPMT			= ПРОЦПЛАТ				##	Вычисляет выплаты за указанный период инвестиции.
+MDURATION		= МДЛИТ					##	Возвращает модифицированную длительность Маколея для ценных бумаг с предполагаемой номинальной стоимостью 100 рублей.
+MIRR			= МВСД					##	Возвращает внутреннюю ставку доходности, при которой положительные и отрицательные денежные потоки имеют разные значения ставки.
+NOMINAL			= НОМИНАЛ				##	Возвращает номинальную годовую процентную ставку.
+NPER			= КПЕР					##	Возвращает общее количество периодов выплаты для данного вклада.
+NPV			= ЧПС					##	Возвращает чистую приведенную стоимость инвестиции, основанной на серии периодических денежных потоков и ставке дисконтирования.
+ODDFPRICE		= ЦЕНАПЕРВНЕРЕГ				##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг с нерегулярным первым периодом.
+ODDFYIELD		= ДОХОДПЕРВНЕРЕГ			##	Возвращает доход по ценным бумагам с нерегулярным первым периодом.
+ODDLPRICE		= ЦЕНАПОСЛНЕРЕГ				##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг с нерегулярным последним периодом.
+ODDLYIELD		= ДОХОДПОСЛНЕРЕГ			##	Возвращает доход по ценным бумагам с нерегулярным последним периодом.
+PMT			= ПЛТ					##	Возвращает величину выплаты за один период аннуитета.
+PPMT			= ОСПЛТ					##	Возвращает величину выплат в погашение основной суммы по инвестиции за заданный период.
+PRICE			= ЦЕНА					##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг, по которым производится периодическая выплата процентов.
+PRICEDISC		= ЦЕНАСКИДКА				##	Возвращает цену за 100 рублей номинальной стоимости ценных бумаг, на которые сделана скидка.
+PRICEMAT		= ЦЕНАПОГАШ				##	Возвращает цену за 100 рублей номинальной стоимости ценных бумаг, проценты по которым выплачиваются в срок погашения.
+PV			= ПС					##	Возвращает приведенную (к текущему моменту) стоимость инвестиции.
+RATE			= СТАВКА				##	Возвращает процентную ставку по аннуитету за один период.
+RECEIVED		= ПОЛУЧЕНО				##	Возвращает сумму, полученную к сроку погашения полностью обеспеченных ценных бумаг.
+SLN			= АПЛ					##	Возвращает величину линейной амортизации актива за один период.
+SYD			= АСЧ					##	Возвращает величину амортизации актива за данный период, рассчитанную методом суммы годовых чисел.
+TBILLEQ			= РАВНОКЧЕК				##	Возвращает эквивалентный облигации доход по казначейскому чеку.
+TBILLPRICE		= ЦЕНАКЧЕК				##	Возвращает цену за 100 рублей нарицательной стоимости для казначейского чека.
+TBILLYIELD		= ДОХОДКЧЕК				##	Возвращает доход по казначейскому чеку.
+VDB			= ПУО					##	Возвращает величину амортизации актива для указанного или частичного периода при использовании метода сокращающегося баланса.
+XIRR			= ЧИСТВНДОХ				##	Возвращает внутреннюю ставку доходности для графика денежных потоков, которые не обязательно носят периодический характер.
+XNPV			= ЧИСТНЗ				##	Возвращает чистую приведенную стоимость для денежных потоков, которые не обязательно являются периодическими.
+YIELD			= ДОХОД					##	Возвращает доход от ценных бумаг, по которым производятся периодические выплаты процентов.
+YIELDDISC		= ДОХОДСКИДКА				##	Возвращает годовой доход по ценным бумагам, на которые сделана скидка (пример — казначейские чеки).
+YIELDMAT		= ДОХОДПОГАШ				##	Возвращает годовой доход от ценных бумаг, проценты по которым выплачиваются в срок погашения.</text>
+  </threadedComment>
+  <threadedComment ref="S172" dT="2023-08-22T02:54:35.59" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{FF6A9B1E-172D-419A-AE26-363E0061308C}">
+    <text>CELL			= ЯЧЕЙКА				##	Возвращает информацию о формате, расположении или содержимом ячейки.
+ERROR.TYPE		= ТИП.ОШИБКИ				##	Возвращает числовой код, соответствующий типу ошибки.
+INFO			= ИНФОРМ				##	Возвращает информацию о текущей операционной среде.
+ISBLANK			= ЕПУСТО				##	Возвращает значение ИСТИНА, если аргумент является ссылкой на пустую ячейку.
+ISERR			= ЕОШ					##	Возвращает значение ИСТИНА, если аргумент ссылается на любое значение ошибки, кроме #Н/Д.
+ISERROR			= ЕОШИБКА				##	Возвращает значение ИСТИНА, если аргумент ссылается на любое значение ошибки.
+ISEVEN			= ЕЧЁТН					##	Возвращает значение ИСТИНА, если значение аргумента является четным числом.
+ISLOGICAL		= ЕЛОГИЧ				##	Возвращает значение ИСТИНА, если аргумент ссылается на логическое значение.
+ISNA			= ЕНД					##	Возвращает значение ИСТИНА, если аргумент ссылается на значение ошибки #Н/Д.
+ISNONTEXT		= ЕНЕТЕКСТ				##	Возвращает значение ИСТИНА, если значение аргумента не является текстом.
+ISNUMBER		= ЕЧИСЛО				##	Возвращает значение ИСТИНА, если аргумент ссылается на число.
+ISODD			= ЕНЕЧЁТ				##	Возвращает значение ИСТИНА, если значение аргумента является нечетным числом.
+ISREF			= ЕССЫЛКА				##	Возвращает значение ИСТИНА, если значение аргумента является ссылкой.
+ISTEXT			= ЕТЕКСТ				##	Возвращает значение ИСТИНА, если значение аргумента является текстом.
+N			= Ч					##	Возвращает значение, преобразованное в число.
+NA			= НД					##	Возвращает значение ошибки #Н/Д.
+TYPE			= ТИП					##	Возвращает число, обозначающее тип данных значения.</text>
+  </threadedComment>
+  <threadedComment ref="S195" dT="2023-08-22T02:55:34.25" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{CACDDDBD-012F-4F2F-8457-4FF52EB4D2D0}">
+    <text>AND			= И					##	Renvoie VRAI si tous ses arguments sont VRAI.
+FALSE			= ЛОЖЬ					##	Возвращает логическое значение ЛОЖЬ.
+IF			= ЕСЛИ					##	Выполняет проверку условия.
+IFERROR			= ЕСЛИОШИБКА				##	Возвращает введённое значение, если вычисление по формуле вызывает ошибку; в противном случае функция возвращает результат вычисления.
+NOT			= НЕ					##	Меняет логическое значение своего аргумента на противоположное.
+OR			= ИЛИ					##	Возвращает значение ИСТИНА, если хотя бы один аргумент имеет значение ИСТИНА.
+TRUE			= ИСТИНА				##	Возвращает логическое значение ИСТИНА.</text>
+  </threadedComment>
+  <threadedComment ref="S216" dT="2023-08-22T02:56:40.23" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{3B6725E7-9A95-45C6-BAD0-BB4C900C4B9F}">
+    <text>ADDRESS			= АДРЕС					##	Возвращает ссылку на отдельную ячейку листа в виде текста.
+AREAS			= ОБЛАСТИ				##	Возвращает количество областей в ссылке.
+CHOOSE			= ВЫБОР					##	Выбирает значение из списка значений по индексу.
+COLUMN			= СТОЛБЕЦ				##	Возвращает номер столбца, на который указывает ссылка.
+COLUMNS			= ЧИСЛСТОЛБ				##	Возвращает количество столбцов в ссылке.
+HLOOKUP			= ГПР					##	Ищет в первой строке массива и возвращает значение отмеченной ячейки
+HYPERLINK		= ГИПЕРССЫЛКА				##	Создает ссылку, открывающую документ, который находится на сервере сети, в интрасети или в Интернете.
+INDEX			= ИНДЕКС				##	Использует индекс для выбора значения из ссылки или массива.
+INDIRECT		= ДВССЫЛ				##	Возвращает ссылку, заданную текстовым значением.
+LOOKUP			= ПРОСМОТР				##	Ищет значения в векторе или массиве.
+MATCH			= ПОИСКПОЗ				##	Ищет значения в ссылке или массиве.
+OFFSET			= СМЕЩ					##	Возвращает смещение ссылки относительно заданной ссылки.
+ROW			= СТРОКА				##	Возвращает номер строки, определяемой ссылкой.
+ROWS			= ЧСТРОК				##	Возвращает количество строк в ссылке.
+RTD			= ДРВ					##	Извлекает данные реального времени из программ, поддерживающих автоматизацию COM (Программирование объектов. Стандартное средство для работы с объектами некоторого приложения из другого приложения или средства разработки. Программирование объектов (ранее называемое программированием OLE) является функцией модели COM (Component Object Model, модель компонентных объектов).).
+TRANSPOSE		= ТРАНСП				##	Возвращает транспонированный массив.
+VLOOKUP			= ВПР					##	Ищет значение в первом столбце массива и возвращает значение из ячейки в найденной строке и указанном столбце.</text>
+  </threadedComment>
+  <threadedComment ref="S224" dT="2023-08-22T20:04:15.97" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{6005DC7F-03C9-4B1E-B445-787F12B5B7BC}">
+    <text>##	Add-in and Automation functions				Функции надстроек и автоматизации
+##
+GETPIVOTDATA		= ПОЛУЧИТЬ.ДАННЫЕ.СВОДНОЙ.ТАБЛИЦЫ	##	Возвращает данные, хранящиеся в отчете сводной таблицы.</text>
+  </threadedComment>
+  <threadedComment ref="S244" dT="2023-08-22T02:57:41.82" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{5539F2F5-C7CE-40CC-84E7-73C614DD1C3A}">
+    <text>ABS			= ABS					##	Возвращает модуль (абсолютную величину) числа.
+ACOS			= ACOS					##	Возвращает арккосинус числа.
+ACOSH			= ACOSH					##	Возвращает гиперболический арккосинус числа.
+ASIN			= ASIN					##	Возвращает арксинус числа.
+ASINH			= ASINH					##	Возвращает гиперболический арксинус числа.
+ATAN			= ATAN					##	Возвращает арктангенс числа.
+ATAN2			= ATAN2					##	Возвращает арктангенс для заданных координат x и y.
+ATANH			= ATANH					##	Возвращает гиперболический арктангенс числа.
+CEILING			= ОКРВВЕРХ				##	Округляет число до ближайшего целого или до ближайшего кратного указанному значению.
+COMBIN			= ЧИСЛКОМБ				##	Возвращает количество комбинаций для заданного числа объектов.
+COS			= COS					##	Возвращает косинус числа.
+COSH			= COSH					##	Возвращает гиперболический косинус числа.
+DEGREES			= ГРАДУСЫ				##	Преобразует радианы в градусы.
+EVEN			= ЧЁТН					##	Округляет число до ближайшего четного целого.
+EXP			= EXP					##	Возвращает число e, возведенное в указанную степень.
+FACT			= ФАКТР					##	Возвращает факториал числа.
+FACTDOUBLE		= ДВФАКТР				##	Возвращает двойной факториал числа.
+FLOOR			= ОКРВНИЗ				##	Округляет число до ближайшего меньшего по модулю значения.
+GCD			= НОД					##	Возвращает наибольший общий делитель.
+INT			= ЦЕЛОЕ					##	Округляет число до ближайшего меньшего целого.
+LCM			= НОК					##	Возвращает наименьшее общее кратное.
+LN			= LN					##	Возвращает натуральный логарифм числа.
+LOG			= LOG					##	Возвращает логарифм числа по заданному основанию.
+LOG10			= LOG10					##	Возвращает десятичный логарифм числа.
+MDETERM			= МОПРЕД				##	Возвращает определитель матрицы массива.
+MINVERSE		= МОБР					##	Возвращает обратную матрицу массива.
+MMULT			= МУМНОЖ				##	Возвращает произведение матриц двух массивов.
+MOD			= ОСТАТ					##	Возвращает остаток от деления.
+MROUND			= ОКРУГЛТ				##	Возвращает число, округленное с требуемой точностью.
+MULTINOMIAL		= МУЛЬТИНОМ				##	Возвращает мультиномиальный коэффициент множества чисел.
+ODD			= НЕЧЁТ					##	Округляет число до ближайшего нечетного целого.
+PI			= ПИ					##	Возвращает число пи.
+POWER			= СТЕПЕНЬ				##	Возвращает результат возведения числа в степень.
+PRODUCT			= ПРОИЗВЕД				##	Возвращает произведение аргументов.
+QUOTIENT		= ЧАСТНОЕ				##	Возвращает целую часть частного при делении.
+RADIANS			= РАДИАНЫ				##	Преобразует градусы в радианы.
+RAND			= СЛЧИС					##	Возвращает случайное число в интервале от 0 до 1.
+RANDBETWEEN		= СЛУЧМЕЖДУ				##	Возвращает случайное число в интервале между двумя заданными числами.
+ROMAN			= РИМСКОЕ				##	Преобразует арабские цифры в римские в виде текста.
+ROUND			= ОКРУГЛ				##	Округляет число до указанного количества десятичных разрядов.
+ROUNDDOWN		= ОКРУГЛВНИЗ				##	Округляет число до ближайшего меньшего по модулю значения.
+ROUNDUP			= ОКРУГЛВВЕРХ				##	Округляет число до ближайшего большего по модулю значения.
+SERIESSUM		= РЯД.СУММ				##	Возвращает сумму степенного ряда, вычисленную по формуле.
+SIGN			= ЗНАК					##	Возвращает знак числа.
+SIN			= SIN					##	Возвращает синус заданного угла.
+SINH			= SINH					##	Возвращает гиперболический синус числа.
+SQRT			= КОРЕНЬ				##	Возвращает положительное значение квадратного корня.
+SQRTPI			= КОРЕНЬПИ				##	Возвращает квадратный корень из значения выражения (число * ПИ).
+SUBTOTAL		= ПРОМЕЖУТОЧНЫЕ.ИТОГИ			##	Возвращает промежуточный итог в списке или базе данных.
+SUM			= СУММ					##	Суммирует аргументы.
+SUMIF			= СУММЕСЛИ				##	Суммирует ячейки, удовлетворяющие заданному условию.
+SUMIFS			= СУММЕСЛИМН				##	Суммирует диапазон ячеек, удовлетворяющих нескольким условиям.
+SUMPRODUCT		= СУММПРОИЗВ				##	Возвращает сумму произведений соответствующих элементов массивов.
+SUMSQ			= СУММКВ				##	Возвращает сумму квадратов аргументов.
+SUMX2MY2		= СУММРАЗНКВ				##	Возвращает сумму разностей квадратов соответствующих значений в двух массивах.
+SUMX2PY2		= СУММСУММКВ				##	Возвращает сумму сумм квадратов соответствующих элементов двух массивов.
+SUMXMY2			= СУММКВРАЗН				##	Возвращает сумму квадратов разностей соответствующих значений в двух массивах.
+TAN			= TAN					##	Возвращает тангенс числа.
+TANH			= TANH					##	Возвращает гиперболический тангенс числа.
+TRUNC			= ОТБР					##	Отбрасывает дробную часть числа.</text>
+  </threadedComment>
+  <threadedComment ref="S339" dT="2023-08-22T02:58:49.96" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{0BC0B73F-15BC-4022-959C-D8A0FF6F60FB}">
+    <text>AVEDEV			= СРОТКЛ				##	Возвращает среднее арифметическое абсолютных значений отклонений точек данных от среднего.
+AVERAGE			= СРЗНАЧ				##	Возвращает среднее арифметическое аргументов.
+AVERAGEA		= СРЗНАЧА				##	Возвращает среднее арифметическое аргументов, включая числа, текст и логические значения.
+AVERAGEIF		= СРЗНАЧЕСЛИ 				##	Возвращает среднее значение (среднее арифметическое) всех ячеек в диапазоне, которые удовлетворяют данному условию.
+AVERAGEIFS		= СРЗНАЧЕСЛИМН 				##	Возвращает среднее значение (среднее арифметическое) всех ячеек, которые удовлетворяют нескольким условиям.
+BETADIST		= БЕТАРАСП				##	Возвращает интегральную функцию бета-распределения.
+BETAINV			= БЕТАОБР				##	Возвращает обратную интегральную функцию указанного бета-распределения.
+BINOMDIST		= БИНОМРАСП				##	Возвращает отдельное значение биномиального распределения.
+CHIDIST			= ХИ2РАСП				##	Возвращает одностороннюю вероятность распределения хи-квадрат.
+CHIINV			= ХИ2ОБР				##	Возвращает обратное значение односторонней вероятности распределения хи-квадрат.
+CHITEST			= ХИ2ТЕСТ				##	Возвращает тест на независимость.
+CONFIDENCE		= ДОВЕРИТ				##	Возвращает доверительный интервал для среднего значения по генеральной совокупности.
+CORREL			= КОРРЕЛ				##	Возвращает коэффициент корреляции между двумя множествами данных.
+COUNT			= СЧЁТ					##	Подсчитывает количество чисел в списке аргументов.
+COUNTA			= СЧЁТЗ					##	Подсчитывает количество значений в списке аргументов.
+COUNTBLANK		= СЧИТАТЬПУСТОТЫ			##	Подсчитывает количество пустых ячеек в диапазоне
+COUNTIF			= СЧЁТЕСЛИ 				##	Подсчитывает количество ячеек в диапазоне, удовлетворяющих заданному условию
+COUNTIFS		= СЧЁТЕСЛИМН				##	Подсчитывает количество ячеек внутри диапазона, удовлетворяющих нескольким условиям.
+COVAR			= КОВАР					##	Возвращает ковариацию, среднее произведений парных отклонений
+CRITBINOM		= КРИТБИНОМ				##	Возвращает наименьшее значение, для которого интегральное биномиальное распределение меньше или равно заданному критерию.
+DEVSQ			= КВАДРОТКЛ				##	Возвращает сумму квадратов отклонений.
+EXPONDIST		= ЭКСПРАСП				##	Возвращает экспоненциальное распределение.
+FDIST			= FРАСП					##	Возвращает F-распределение вероятности.
+FINV			= FРАСПОБР				##	Возвращает обратное значение для F-распределения вероятности.
+FISHER			= ФИШЕР					##	Возвращает преобразование Фишера.
+FISHERINV		= ФИШЕРОБР				##	Возвращает обратное преобразование Фишера.
+FORECAST		= ПРЕДСКАЗ				##	Возвращает значение линейного тренда.
+FREQUENCY		= ЧАСТОТА				##	Возвращает распределение частот в виде вертикального массива.
+FTEST			= ФТЕСТ					##	Возвращает результат F-теста.
+GAMMADIST		= ГАММАРАСП				##	Возвращает гамма-распределение.
+GAMMAINV		= ГАММАОБР				##	Возвращает обратное гамма-распределение.
+GAMMALN			= ГАММАНЛОГ				##	Возвращает натуральный логарифм гамма функции, Γ(x).
+GEOMEAN			= СРГЕОМ				##	Возвращает среднее геометрическое.
+GROWTH			= РОСТ					##	Возвращает значения в соответствии с экспоненциальным трендом.
+HARMEAN			= СРГАРМ				##	Возвращает среднее гармоническое.
+HYPGEOMDIST		= ГИПЕРГЕОМЕТ				##	Возвращает гипергеометрическое распределение.
+INTERCEPT		= ОТРЕЗОК				##	Возвращает отрезок, отсекаемый на оси линией линейной регрессии.
+KURT			= ЭКСЦЕСС				##	Возвращает эксцесс множества данных.
+LARGE			= НАИБОЛЬШИЙ				##	Возвращает k-ое наибольшее значение в множестве данных.
+LINEST			= ЛИНЕЙН				##	Возвращает параметры линейного тренда.
+LOGEST			= ЛГРФПРИБЛ				##	Возвращает параметры экспоненциального тренда.
+LOGINV			= ЛОГНОРМОБР				##	Возвращает обратное логарифмическое нормальное распределение.
+LOGNORMDIST		= ЛОГНОРМРАСП				##	Возвращает интегральное логарифмическое нормальное распределение.
+MAX			= МАКС					##	Возвращает наибольшее значение в списке аргументов.
+MAXA			= МАКСА					##	Возвращает наибольшее значение в списке аргументов, включая числа, текст и логические значения.
+MEDIAN			= МЕДИАНА				##	Возвращает медиану заданных чисел.
+MIN			= МИН					##	Возвращает наименьшее значение в списке аргументов.
+MINA			= МИНА					##	Возвращает наименьшее значение в списке аргументов, включая числа, текст и логические значения.
+MODE			= МОДА					##	Возвращает значение моды множества данных.
+NEGBINOMDIST		= ОТРБИНОМРАСП				##	Возвращает отрицательное биномиальное распределение.
+NORMDIST		= НОРМРАСП				##	Возвращает нормальную функцию распределения.
+NORMINV			= НОРМОБР				##	Возвращает обратное нормальное распределение.
+NORMSDIST		= НОРМСТРАСП				##	Возвращает стандартное нормальное интегральное распределение.
+NORMSINV		= НОРМСТОБР				##	Возвращает обратное значение стандартного нормального распределения.
+PEARSON			= ПИРСОН				##	Возвращает коэффициент корреляции Пирсона.
+PERCENTILE		= ПЕРСЕНТИЛЬ				##	Возвращает k-ую персентиль для значений диапазона.
+PERCENTRANK		= ПРОЦЕНТРАНГ				##	Возвращает процентную норму значения в множестве данных.
+PERMUT			= ПЕРЕСТ				##	Возвращает количество перестановок для заданного числа объектов.
+POISSON			= ПУАССОН				##	Возвращает распределение Пуассона.
+PROB			= ВЕРОЯТНОСТЬ				##	Возвращает вероятность того, что значение из диапазона находится внутри заданных пределов.
+QUARTILE		= КВАРТИЛЬ				##	Возвращает квартиль множества данных.
+RANK			= РАНГ					##	Возвращает ранг числа в списке чисел.
+RSQ			= КВПИРСОН				##	Возвращает квадрат коэффициента корреляции Пирсона.
+SKEW			= СКОС					##	Возвращает асимметрию распределения.
+SLOPE			= НАКЛОН				##	Возвращает наклон линии линейной регрессии.
+SMALL			= НАИМЕНЬШИЙ				##	Возвращает k-ое наименьшее значение в множестве данных.
+STANDARDIZE		= НОРМАЛИЗАЦИЯ				##	Возвращает нормализованное значение.
+STDEV			= СТАНДОТКЛОН				##	Оценивает стандартное отклонение по выборке.
+STDEVA			= СТАНДОТКЛОНА				##	Оценивает стандартное отклонение по выборке, включая числа, текст и логические значения.
+STDEVP			= СТАНДОТКЛОНП				##	Вычисляет стандартное отклонение по генеральной совокупности.
+STDEVPA			= СТАНДОТКЛОНПА				##	Вычисляет стандартное отклонение по генеральной совокупности, включая числа, текст и логические значения.
+STEYX			= СТОШYX				##	Возвращает стандартную ошибку предсказанных значений y для каждого значения x в регрессии.
+TDIST			= СТЬЮДРАСП				##	Возвращает t-распределение Стьюдента.
+TINV			= СТЬЮДРАСПОБР				##	Возвращает обратное t-распределение Стьюдента.
+TREND			= ТЕНДЕНЦИЯ				##	Возвращает значения в соответствии с линейным трендом.
+TRIMMEAN		= УРЕЗСРЕДНЕЕ				##	Возвращает среднее внутренности множества данных.
+TTEST			= ТТЕСТ					##	Возвращает вероятность, соответствующую критерию Стьюдента.
+VAR			= ДИСП					##	Оценивает дисперсию по выборке.
+VARA			= ДИСПА					##	Оценивает дисперсию по выборке, включая числа, текст и логические значения.
+VARP			= ДИСПР					##	Вычисляет дисперсию для генеральной совокупности.
+VARPA			= ДИСПРА				##	Вычисляет дисперсию для генеральной совокупности, включая числа, текст и логические значения.
+WEIBULL			= ВЕЙБУЛЛ				##	Возвращает распределение Вейбулла.
+ZTEST			= ZТЕСТ					##	Возвращает двустороннее P-значение z-теста.</text>
+  </threadedComment>
+  <threadedComment ref="S451" dT="2023-08-22T02:59:48.73" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{4BB940B1-F984-4562-9953-F98AB6C81E95}">
+    <text>ASC			= ASC					##	Для языков с двухбайтовыми наборами знаков (например, катакана) преобразует полноширинные (двухбайтовые) знаки в полуширинные (однобайтовые).
+BAHTTEXT		= БАТТЕКСТ				##	Преобразует число в текст, используя денежный формат ß (БАТ).
+CHAR			= СИМВОЛ				##	Возвращает знак с заданным кодом.
+CLEAN			= ПЕЧСИМВ				##	Удаляет все непечатаемые знаки из текста.
+CODE			= КОДСИМВ				##	Возвращает числовой код первого знака в текстовой строке.
+CONCATENATE		= СЦЕПИТЬ				##	Объединяет несколько текстовых элементов в один.
+DOLLAR			= РУБЛЬ					##	Преобразует число в текст, используя денежный формат.
+EXACT			= СОВПАД				##	Проверяет идентичность двух текстовых значений.
+FIND			= НАЙТИ					##	Ищет вхождения одного текстового значения в другом (с учетом регистра).
+FINDB			= НАЙТИБ				##	Ищет вхождения одного текстового значения в другом (с учетом регистра).
+FIXED			= ФИКСИРОВАННЫЙ				##	Форматирует число и преобразует его в текст с заданным числом десятичных знаков.
+JIS			= JIS					##	Для языков с двухбайтовыми наборами знаков (например, катакана) преобразует полуширинные (однобайтовые) знаки в текстовой строке в полноширинные (двухбайтовые).
+LEFT			= ЛЕВСИМВ				##	Возвращает крайние слева знаки текстового значения.
+LEFTB			= ЛЕВБ					##	Возвращает крайние слева знаки текстового значения.
+LEN			= ДЛСТР					##	Возвращает количество знаков в текстовой строке.
+LENB			= ДЛИНБ					##	Возвращает количество знаков в текстовой строке.
+LOWER			= СТРОЧН				##	Преобразует все буквы текста в строчные.
+MID			= ПСТР					##	Возвращает заданное число знаков из строки текста, начиная с указанной позиции.
+MIDB			= ПСТРБ					##	Возвращает заданное число знаков из строки текста, начиная с указанной позиции.
+PHONETIC		= PHONETIC				##	Извлекает фонетические (фуригана) знаки из текстовой строки.
+PROPER			= ПРОПНАЧ				##	Преобразует первую букву в каждом слове текста в прописную.
+REPLACE			= ЗАМЕНИТЬ				##	Заменяет знаки в тексте.
+REPLACEB		= ЗАМЕНИТЬБ				##	Заменяет знаки в тексте.
+REPT			= ПОВТОР				##	Повторяет текст заданное число раз.
+RIGHT			= ПРАВСИМВ				##	Возвращает крайние справа знаки текстовой строки.
+RIGHTB			= ПРАВБ					##	Возвращает крайние справа знаки текстовой строки.
+SEARCH			= ПОИСК					##	Ищет вхождения одного текстового значения в другом (без учета регистра).
+SEARCHB			= ПОИСКБ				##	Ищет вхождения одного текстового значения в другом (без учета регистра).
+SUBSTITUTE		= ПОДСТАВИТЬ				##	Заменяет в текстовой строке старый текст новым.
+T			= Т					##	Преобразует аргументы в текст.
+TEXT			= ТЕКСТ					##	Форматирует число и преобразует его в текст.
+TRIM			= СЖПРОБЕЛЫ				##	Удаляет из текста пробелы.
+UPPER			= ПРОПИСН				##	Преобразует все буквы текста в прописные.
+VALUE			= ЗНАЧЕН				##	Преобразует текстовый аргумент в число.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -20177,43 +21079,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A36666-6E7A-4A48-9C4E-B256160FF964}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="2510" ySplit="1160" topLeftCell="R4" activePane="topRight"/>
+      <selection pane="topRight" activeCell="AC3" sqref="AC3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1796875" customWidth="1"/>
+    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>838</v>
       </c>
@@ -20292,8 +21196,14 @@
       <c r="AA1" s="1" t="s">
         <v>4758</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB1" s="1" t="s">
+        <v>6568</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>6495</v>
       </c>
@@ -20369,8 +21279,14 @@
       <c r="AA2" s="1" t="s">
         <v>4759</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="1" t="s">
+        <v>6566</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>2004</v>
       </c>
@@ -20449,13 +21365,19 @@
       <c r="AA3" s="1" t="s">
         <v>4757</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="1" t="s">
+        <v>6566</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6469</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>6470</v>
       </c>
@@ -20507,14 +21429,20 @@
       <c r="AA5" s="1" t="s">
         <v>6493</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB5" s="1" t="s">
+        <v>6470</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6343</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6344</v>
       </c>
@@ -20578,8 +21506,11 @@
       <c r="AA8" t="s">
         <v>6365</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC8" t="s">
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6471</v>
       </c>
@@ -20628,8 +21559,11 @@
       <c r="AA9" t="s">
         <v>6379</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC9" t="s">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>6472</v>
       </c>
@@ -20711,8 +21645,11 @@
       <c r="AA10" t="s">
         <v>6402</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC10" t="s">
+        <v>6574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6473</v>
       </c>
@@ -20767,8 +21704,11 @@
       <c r="AA11" t="s">
         <v>6417</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC11" t="s">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6474</v>
       </c>
@@ -20847,8 +21787,11 @@
       <c r="AA12" t="s">
         <v>6436</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC12" t="s">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>6475</v>
       </c>
@@ -20912,8 +21855,11 @@
       <c r="AA13" t="s">
         <v>6452</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC13" t="s">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>6476</v>
       </c>
@@ -20983,47 +21929,65 @@
       <c r="AA14" t="s">
         <v>6467</v>
       </c>
+      <c r="AC14" t="s">
+        <v>6463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB19" t="s">
+        <v>6567</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>6572</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31683534-79D8-42E0-A1E0-6E4CC43822BE}">
-  <dimension ref="A1:R550"/>
+  <dimension ref="A1:S550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B207" sqref="B207"/>
+      <pane xSplit="5260" ySplit="1160" topLeftCell="Q4" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -21077,9 +22041,12 @@
       <c r="R1" s="1" t="s">
         <v>6079</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="S1" s="1" t="s">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>5768</v>
       </c>
@@ -21128,9 +22095,12 @@
       <c r="R2" s="1" t="s">
         <v>6492</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>2004</v>
       </c>
@@ -21182,8 +22152,11 @@
       <c r="R3" s="1" t="s">
         <v>3662</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="1" t="s">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>473</v>
       </c>
@@ -21238,8 +22211,11 @@
       <c r="R4" s="1" t="s">
         <v>5900</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="1" t="s">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -21291,8 +22267,11 @@
       <c r="R5" t="s">
         <v>3663</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -21344,8 +22323,11 @@
       <c r="R6" t="s">
         <v>2009</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -21397,8 +22379,11 @@
       <c r="R7" t="s">
         <v>3664</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -21450,8 +22435,11 @@
       <c r="R8" t="s">
         <v>3665</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -21503,8 +22491,11 @@
       <c r="R9" t="s">
         <v>3666</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -21556,8 +22547,11 @@
       <c r="R10" t="s">
         <v>3667</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -21609,8 +22603,11 @@
       <c r="R11" t="s">
         <v>3668</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>475</v>
       </c>
@@ -21665,8 +22662,11 @@
       <c r="R13" s="1" t="s">
         <v>5901</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="1" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>476</v>
       </c>
@@ -21718,8 +22718,11 @@
       <c r="R14" t="s">
         <v>3669</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>478</v>
       </c>
@@ -21771,8 +22774,11 @@
       <c r="R15" t="s">
         <v>3670</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>480</v>
       </c>
@@ -21824,8 +22830,11 @@
       <c r="R16" t="s">
         <v>3671</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>482</v>
       </c>
@@ -21877,8 +22886,11 @@
       <c r="R17" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>484</v>
       </c>
@@ -21930,8 +22942,11 @@
       <c r="R18" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>486</v>
       </c>
@@ -21983,8 +22998,11 @@
       <c r="R19" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>488</v>
       </c>
@@ -22036,8 +23054,11 @@
       <c r="R20" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>490</v>
       </c>
@@ -22089,8 +23110,11 @@
       <c r="R21" t="s">
         <v>3672</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>492</v>
       </c>
@@ -22142,8 +23166,11 @@
       <c r="R22" t="s">
         <v>3673</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>494</v>
       </c>
@@ -22195,8 +23222,11 @@
       <c r="R23" t="s">
         <v>3674</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>496</v>
       </c>
@@ -22248,8 +23278,11 @@
       <c r="R24" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>498</v>
       </c>
@@ -22301,8 +23334,11 @@
       <c r="R25" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>474</v>
       </c>
@@ -22357,8 +23393,11 @@
       <c r="R27" s="1" t="s">
         <v>5902</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27" s="1" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -22410,8 +23449,11 @@
       <c r="R28" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>6080</v>
       </c>
@@ -22449,7 +23491,7 @@
         <v>6110</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>6146</v>
       </c>
@@ -22490,7 +23532,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>18</v>
       </c>
@@ -22542,8 +23584,11 @@
       <c r="R31" t="s">
         <v>3675</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -22595,8 +23640,11 @@
       <c r="R32" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S32" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -22649,7 +23697,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -22701,8 +23749,11 @@
       <c r="R34" t="s">
         <v>3677</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S34" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -22754,8 +23805,11 @@
       <c r="R35" t="s">
         <v>3678</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S35" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -22807,8 +23861,11 @@
       <c r="R36" t="s">
         <v>3679</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S36" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -22860,8 +23917,11 @@
       <c r="R37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S37" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -22914,7 +23974,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>34</v>
       </c>
@@ -22966,8 +24026,11 @@
       <c r="R39" t="s">
         <v>3681</v>
       </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S39" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>35</v>
       </c>
@@ -23019,8 +24082,11 @@
       <c r="R40" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S40" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>37</v>
       </c>
@@ -23072,8 +24138,11 @@
       <c r="R41" t="s">
         <v>3682</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S41" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -23126,7 +24195,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -23178,8 +24247,11 @@
       <c r="R43" t="s">
         <v>3684</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S43" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>43</v>
       </c>
@@ -23231,8 +24303,11 @@
       <c r="R44" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S44" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>6248</v>
       </c>
@@ -23276,7 +24351,7 @@
         <v>6263</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>6249</v>
       </c>
@@ -23320,7 +24395,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>6250</v>
       </c>
@@ -23364,7 +24439,7 @@
         <v>6278</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -23416,8 +24491,11 @@
       <c r="R48" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -23469,8 +24547,11 @@
       <c r="R49" t="s">
         <v>3685</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>49</v>
       </c>
@@ -23522,8 +24603,11 @@
       <c r="R50" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>51</v>
       </c>
@@ -23575,8 +24659,11 @@
       <c r="R51" t="s">
         <v>3686</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>53</v>
       </c>
@@ -23628,8 +24715,11 @@
       <c r="R52" t="s">
         <v>3687</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>55</v>
       </c>
@@ -23681,8 +24771,11 @@
       <c r="R53" t="s">
         <v>3688</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -23735,7 +24828,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>59</v>
       </c>
@@ -23787,8 +24880,11 @@
       <c r="R55" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>61</v>
       </c>
@@ -23840,8 +24936,11 @@
       <c r="R56" t="s">
         <v>3690</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S56" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -23896,8 +24995,11 @@
       <c r="R58" s="1" t="s">
         <v>5903</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58" s="1" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>64</v>
       </c>
@@ -23949,8 +25051,11 @@
       <c r="R59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S59" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>65</v>
       </c>
@@ -24002,8 +25107,11 @@
       <c r="R60" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>66</v>
       </c>
@@ -24055,8 +25163,11 @@
       <c r="R61" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>67</v>
       </c>
@@ -24108,8 +25219,11 @@
       <c r="R62" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>68</v>
       </c>
@@ -24161,8 +25275,11 @@
       <c r="R63" t="s">
         <v>3691</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>70</v>
       </c>
@@ -24214,8 +25331,11 @@
       <c r="R64" t="s">
         <v>3692</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S64" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>72</v>
       </c>
@@ -24267,8 +25387,11 @@
       <c r="R65" t="s">
         <v>3693</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>74</v>
       </c>
@@ -24321,7 +25444,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>76</v>
       </c>
@@ -24374,7 +25497,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>78</v>
       </c>
@@ -24427,7 +25550,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>80</v>
       </c>
@@ -24480,7 +25603,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>82</v>
       </c>
@@ -24533,7 +25656,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>84</v>
       </c>
@@ -24585,8 +25708,11 @@
       <c r="R71" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S71" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>86</v>
       </c>
@@ -24638,8 +25764,11 @@
       <c r="R72" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S72" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>87</v>
       </c>
@@ -24691,8 +25820,11 @@
       <c r="R73" t="s">
         <v>3697</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S73" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>89</v>
       </c>
@@ -24744,8 +25876,11 @@
       <c r="R74" t="s">
         <v>3698</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S74" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>91</v>
       </c>
@@ -24797,8 +25932,11 @@
       <c r="R75" t="s">
         <v>3699</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S75" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>93</v>
       </c>
@@ -24850,8 +25988,11 @@
       <c r="R76" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S76" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>94</v>
       </c>
@@ -24903,8 +26044,11 @@
       <c r="R77" t="s">
         <v>3700</v>
       </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S77" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>95</v>
       </c>
@@ -24957,7 +26101,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>97</v>
       </c>
@@ -25009,8 +26153,11 @@
       <c r="R79" t="s">
         <v>3702</v>
       </c>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S79" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>98</v>
       </c>
@@ -25063,7 +26210,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>100</v>
       </c>
@@ -25115,8 +26262,11 @@
       <c r="R81" t="s">
         <v>3704</v>
       </c>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S81" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>102</v>
       </c>
@@ -25168,8 +26318,11 @@
       <c r="R82" t="s">
         <v>3705</v>
       </c>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S82" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>104</v>
       </c>
@@ -25221,8 +26374,11 @@
       <c r="R83" t="s">
         <v>3706</v>
       </c>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S83" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>106</v>
       </c>
@@ -25274,8 +26430,11 @@
       <c r="R84" t="s">
         <v>3707</v>
       </c>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S84" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>108</v>
       </c>
@@ -25327,8 +26486,11 @@
       <c r="R85" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S85" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>110</v>
       </c>
@@ -25380,8 +26542,11 @@
       <c r="R86" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S86" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>112</v>
       </c>
@@ -25433,8 +26598,11 @@
       <c r="R87" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>114</v>
       </c>
@@ -25486,8 +26654,11 @@
       <c r="R88" t="s">
         <v>3708</v>
       </c>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S88" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>116</v>
       </c>
@@ -25539,8 +26710,11 @@
       <c r="R89" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S89" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>118</v>
       </c>
@@ -25593,7 +26767,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>120</v>
       </c>
@@ -25646,7 +26820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>122</v>
       </c>
@@ -25699,7 +26873,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>124</v>
       </c>
@@ -25752,7 +26926,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>126</v>
       </c>
@@ -25804,8 +26978,11 @@
       <c r="R94" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S94" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>128</v>
       </c>
@@ -25857,8 +27034,11 @@
       <c r="R95" t="s">
         <v>3709</v>
       </c>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S95" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>130</v>
       </c>
@@ -25910,8 +27090,11 @@
       <c r="R96" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S96" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>132</v>
       </c>
@@ -25963,8 +27146,11 @@
       <c r="R97" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S97" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>134</v>
       </c>
@@ -26016,8 +27202,11 @@
       <c r="R98" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S98" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>136</v>
       </c>
@@ -26069,8 +27258,11 @@
       <c r="R99" t="s">
         <v>3710</v>
       </c>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S99" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>138</v>
       </c>
@@ -26122,8 +27314,11 @@
       <c r="R100" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S100" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>140</v>
       </c>
@@ -26175,8 +27370,11 @@
       <c r="R101" t="s">
         <v>3711</v>
       </c>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S101" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>142</v>
       </c>
@@ -26229,7 +27427,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>144</v>
       </c>
@@ -26282,7 +27480,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>146</v>
       </c>
@@ -26334,8 +27532,11 @@
       <c r="R104" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S104" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>148</v>
       </c>
@@ -26388,7 +27589,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>150</v>
       </c>
@@ -26440,8 +27641,11 @@
       <c r="R106" t="s">
         <v>3712</v>
       </c>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S106" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>152</v>
       </c>
@@ -26493,8 +27697,11 @@
       <c r="R107" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S107" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>154</v>
       </c>
@@ -26546,8 +27753,11 @@
       <c r="R108" t="s">
         <v>3713</v>
       </c>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S108" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>156</v>
       </c>
@@ -26600,7 +27810,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>158</v>
       </c>
@@ -26652,8 +27862,11 @@
       <c r="R110" t="s">
         <v>3714</v>
       </c>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S110" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>160</v>
       </c>
@@ -26705,8 +27918,11 @@
       <c r="R111" t="s">
         <v>3715</v>
       </c>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S111" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>162</v>
       </c>
@@ -26758,8 +27974,11 @@
       <c r="R112" t="s">
         <v>3716</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S112" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>164</v>
       </c>
@@ -26814,8 +28033,11 @@
       <c r="R114" s="1" t="s">
         <v>5904</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S114" s="1" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>165</v>
       </c>
@@ -26867,8 +28089,11 @@
       <c r="R115" t="s">
         <v>3717</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S115" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>167</v>
       </c>
@@ -26920,8 +28145,11 @@
       <c r="R116" t="s">
         <v>3718</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S116" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>169</v>
       </c>
@@ -26973,8 +28201,11 @@
       <c r="R117" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S117" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>170</v>
       </c>
@@ -27026,8 +28257,11 @@
       <c r="R118" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S118" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>171</v>
       </c>
@@ -27079,8 +28313,11 @@
       <c r="R119" t="s">
         <v>3719</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S119" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>173</v>
       </c>
@@ -27132,8 +28369,11 @@
       <c r="R120" t="s">
         <v>3720</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S120" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>175</v>
       </c>
@@ -27185,8 +28425,11 @@
       <c r="R121" t="s">
         <v>3721</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S121" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>177</v>
       </c>
@@ -27238,8 +28481,11 @@
       <c r="R122" t="s">
         <v>3722</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S122" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>179</v>
       </c>
@@ -27291,8 +28537,11 @@
       <c r="R123" t="s">
         <v>3723</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S123" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>181</v>
       </c>
@@ -27344,8 +28593,11 @@
       <c r="R124" t="s">
         <v>3724</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S124" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>183</v>
       </c>
@@ -27397,8 +28649,11 @@
       <c r="R125" t="s">
         <v>3725</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S125" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>185</v>
       </c>
@@ -27450,8 +28705,11 @@
       <c r="R126" t="s">
         <v>3726</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S126" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>187</v>
       </c>
@@ -27503,8 +28761,11 @@
       <c r="R127" t="s">
         <v>3727</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S127" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>188</v>
       </c>
@@ -27556,8 +28817,11 @@
       <c r="R128" t="s">
         <v>3728</v>
       </c>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S128" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>189</v>
       </c>
@@ -27609,8 +28873,11 @@
       <c r="R129" t="s">
         <v>3729</v>
       </c>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S129" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>191</v>
       </c>
@@ -27662,8 +28929,11 @@
       <c r="R130" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S130" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>193</v>
       </c>
@@ -27715,8 +28985,11 @@
       <c r="R131" t="s">
         <v>3730</v>
       </c>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S131" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>195</v>
       </c>
@@ -27768,8 +29041,11 @@
       <c r="R132" t="s">
         <v>3731</v>
       </c>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S132" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>197</v>
       </c>
@@ -27821,8 +29097,11 @@
       <c r="R133" t="s">
         <v>2110</v>
       </c>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S133" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>199</v>
       </c>
@@ -27874,8 +29153,11 @@
       <c r="R134" t="s">
         <v>3732</v>
       </c>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S134" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>201</v>
       </c>
@@ -27927,8 +29209,11 @@
       <c r="R135" t="s">
         <v>3733</v>
       </c>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S135" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>203</v>
       </c>
@@ -27980,8 +29265,11 @@
       <c r="R136" t="s">
         <v>3734</v>
       </c>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S136" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>205</v>
       </c>
@@ -28033,8 +29321,11 @@
       <c r="R137" t="s">
         <v>3735</v>
       </c>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S137" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>207</v>
       </c>
@@ -28086,8 +29377,11 @@
       <c r="R138" t="s">
         <v>3410</v>
       </c>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S138" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>209</v>
       </c>
@@ -28139,8 +29433,11 @@
       <c r="R139" t="s">
         <v>3736</v>
       </c>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S139" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>210</v>
       </c>
@@ -28192,8 +29489,11 @@
       <c r="R140" t="s">
         <v>3737</v>
       </c>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S140" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="141" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>212</v>
       </c>
@@ -28245,8 +29545,11 @@
       <c r="R141" t="s">
         <v>3738</v>
       </c>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S141" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="142" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>214</v>
       </c>
@@ -28298,8 +29601,11 @@
       <c r="R142" t="s">
         <v>3739</v>
       </c>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S142" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="143" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>216</v>
       </c>
@@ -28351,8 +29657,11 @@
       <c r="R143" t="s">
         <v>3740</v>
       </c>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S143" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="144" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>218</v>
       </c>
@@ -28404,8 +29713,11 @@
       <c r="R144" t="s">
         <v>3741</v>
       </c>
-    </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S144" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>220</v>
       </c>
@@ -28457,8 +29769,11 @@
       <c r="R145" t="s">
         <v>3742</v>
       </c>
-    </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S145" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>222</v>
       </c>
@@ -28510,8 +29825,11 @@
       <c r="R146" t="s">
         <v>3743</v>
       </c>
-    </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S146" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>224</v>
       </c>
@@ -28563,8 +29881,11 @@
       <c r="R147" t="s">
         <v>3744</v>
       </c>
-    </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S147" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>226</v>
       </c>
@@ -28616,8 +29937,11 @@
       <c r="R148" t="s">
         <v>3745</v>
       </c>
-    </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S148" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>228</v>
       </c>
@@ -28670,7 +29994,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>230</v>
       </c>
@@ -28722,8 +30046,11 @@
       <c r="R150" t="s">
         <v>3747</v>
       </c>
-    </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S150" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>232</v>
       </c>
@@ -28775,8 +30102,11 @@
       <c r="R151" t="s">
         <v>3748</v>
       </c>
-    </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S151" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>234</v>
       </c>
@@ -28828,8 +30158,11 @@
       <c r="R152" t="s">
         <v>3749</v>
       </c>
-    </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S152" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>236</v>
       </c>
@@ -28881,8 +30214,11 @@
       <c r="R153" t="s">
         <v>3750</v>
       </c>
-    </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S153" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>238</v>
       </c>
@@ -28934,8 +30270,11 @@
       <c r="R154" t="s">
         <v>3751</v>
       </c>
-    </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S154" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>240</v>
       </c>
@@ -28987,8 +30326,11 @@
       <c r="R155" t="s">
         <v>3752</v>
       </c>
-    </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S155" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>242</v>
       </c>
@@ -29040,8 +30382,11 @@
       <c r="R156" t="s">
         <v>2128</v>
       </c>
-    </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S156" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>244</v>
       </c>
@@ -29093,8 +30438,11 @@
       <c r="R157" t="s">
         <v>3753</v>
       </c>
-    </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S157" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>246</v>
       </c>
@@ -29147,7 +30495,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>248</v>
       </c>
@@ -29199,8 +30547,11 @@
       <c r="R159" t="s">
         <v>3755</v>
       </c>
-    </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S159" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>250</v>
       </c>
@@ -29252,8 +30603,11 @@
       <c r="R160" t="s">
         <v>3756</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S160" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>251</v>
       </c>
@@ -29305,8 +30659,11 @@
       <c r="R161" t="s">
         <v>3757</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S161" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>253</v>
       </c>
@@ -29358,8 +30715,11 @@
       <c r="R162" t="s">
         <v>3758</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S162" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>255</v>
       </c>
@@ -29411,8 +30771,11 @@
       <c r="R163" t="s">
         <v>3759</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S163" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>6145</v>
       </c>
@@ -29420,7 +30783,7 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>257</v>
       </c>
@@ -29472,8 +30835,11 @@
       <c r="R165" t="s">
         <v>3760</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S165" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>258</v>
       </c>
@@ -29525,8 +30891,11 @@
       <c r="R166" t="s">
         <v>3761</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S166" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>260</v>
       </c>
@@ -29578,8 +30947,11 @@
       <c r="R167" t="s">
         <v>3762</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S167" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>262</v>
       </c>
@@ -29631,8 +31003,11 @@
       <c r="R168" t="s">
         <v>3763</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S168" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>264</v>
       </c>
@@ -29684,8 +31059,11 @@
       <c r="R169" t="s">
         <v>3764</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S169" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>266</v>
       </c>
@@ -29737,8 +31115,11 @@
       <c r="R170" t="s">
         <v>3765</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S170" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>268</v>
       </c>
@@ -29793,8 +31174,11 @@
       <c r="R172" s="1" t="s">
         <v>5905</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S172" s="1" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>269</v>
       </c>
@@ -29846,8 +31230,11 @@
       <c r="R173" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S173" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>271</v>
       </c>
@@ -29899,8 +31286,11 @@
       <c r="R174" t="s">
         <v>3766</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S174" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>273</v>
       </c>
@@ -29952,8 +31342,11 @@
       <c r="R175" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S175" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>275</v>
       </c>
@@ -30005,8 +31398,11 @@
       <c r="R176" t="s">
         <v>3767</v>
       </c>
-    </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S176" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>277</v>
       </c>
@@ -30058,8 +31454,11 @@
       <c r="R177" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S177" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="178" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>279</v>
       </c>
@@ -30111,8 +31510,11 @@
       <c r="R178" t="s">
         <v>3768</v>
       </c>
-    </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S178" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="179" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>281</v>
       </c>
@@ -30164,8 +31566,11 @@
       <c r="R179" t="s">
         <v>3769</v>
       </c>
-    </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S179" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="180" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>283</v>
       </c>
@@ -30218,7 +31623,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>285</v>
       </c>
@@ -30270,8 +31675,11 @@
       <c r="R181" t="s">
         <v>3771</v>
       </c>
-    </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S181" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="182" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>287</v>
       </c>
@@ -30323,8 +31731,11 @@
       <c r="R182" t="s">
         <v>3772</v>
       </c>
-    </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S182" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>289</v>
       </c>
@@ -30376,8 +31787,11 @@
       <c r="R183" t="s">
         <v>3773</v>
       </c>
-    </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S183" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="184" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>291</v>
       </c>
@@ -30429,8 +31843,11 @@
       <c r="R184" t="s">
         <v>3774</v>
       </c>
-    </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S184" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="185" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>293</v>
       </c>
@@ -30482,13 +31899,16 @@
       <c r="R185" t="s">
         <v>3775</v>
       </c>
-    </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S185" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="186" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>6556</v>
       </c>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>295</v>
       </c>
@@ -30540,8 +31960,11 @@
       <c r="R187" t="s">
         <v>3776</v>
       </c>
-    </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S187" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>297</v>
       </c>
@@ -30593,8 +32016,11 @@
       <c r="R188" t="s">
         <v>3777</v>
       </c>
-    </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S188" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>299</v>
       </c>
@@ -30646,8 +32072,11 @@
       <c r="R189" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S189" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>300</v>
       </c>
@@ -30699,8 +32128,11 @@
       <c r="R190" t="s">
         <v>3778</v>
       </c>
-    </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S190" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>301</v>
       </c>
@@ -30753,7 +32185,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>303</v>
       </c>
@@ -30806,7 +32238,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>305</v>
       </c>
@@ -30858,8 +32290,11 @@
       <c r="R193" t="s">
         <v>3780</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S193" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>500</v>
       </c>
@@ -30914,8 +32349,11 @@
       <c r="R195" s="1" t="s">
         <v>5906</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S195" s="1" t="s">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>306</v>
       </c>
@@ -30967,18 +32405,21 @@
       <c r="R196" t="s">
         <v>2160</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S196" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>6557</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>6558</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B199" s="2" t="s">
         <v>3944</v>
       </c>
@@ -31030,8 +32471,11 @@
       <c r="R199" s="2" t="s">
         <v>3781</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S199" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>309</v>
       </c>
@@ -31083,8 +32527,11 @@
       <c r="R200" t="s">
         <v>2162</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S200" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>311</v>
       </c>
@@ -31136,8 +32583,11 @@
       <c r="R201" t="s">
         <v>3782</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S201" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>313</v>
       </c>
@@ -31190,7 +32640,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>315</v>
       </c>
@@ -31243,27 +32693,27 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>6562</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>6563</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>6564</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>6559</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>317</v>
       </c>
@@ -31315,8 +32765,11 @@
       <c r="R208" t="s">
         <v>2166</v>
       </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S208" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>319</v>
       </c>
@@ -31368,18 +32821,21 @@
       <c r="R209" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S209" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>6560</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>6561</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>321</v>
       </c>
@@ -31432,7 +32888,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B213" s="2" t="s">
         <v>3945</v>
       </c>
@@ -31484,8 +32940,11 @@
       <c r="R213" s="2" t="s">
         <v>3786</v>
       </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S213" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>324</v>
       </c>
@@ -31538,7 +32997,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="216" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>326</v>
       </c>
@@ -31593,8 +33052,11 @@
       <c r="R216" s="1" t="s">
         <v>5907</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S216" s="1" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>327</v>
       </c>
@@ -31646,8 +33108,11 @@
       <c r="R217" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S217" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>329</v>
       </c>
@@ -31699,8 +33164,11 @@
       <c r="R218" t="s">
         <v>2171</v>
       </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S218" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>331</v>
       </c>
@@ -31752,8 +33220,11 @@
       <c r="R219" t="s">
         <v>3788</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S219" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>333</v>
       </c>
@@ -31805,8 +33276,11 @@
       <c r="R220" t="s">
         <v>2173</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S220" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>335</v>
       </c>
@@ -31858,8 +33332,11 @@
       <c r="R221" t="s">
         <v>2174</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S221" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>6081</v>
       </c>
@@ -31867,7 +33344,7 @@
         <v>6516</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>337</v>
       </c>
@@ -31920,7 +33397,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>339</v>
       </c>
@@ -31972,8 +33449,11 @@
       <c r="R224" t="s">
         <v>3789</v>
       </c>
-    </row>
-    <row r="225" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S224" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="225" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>341</v>
       </c>
@@ -32025,8 +33505,11 @@
       <c r="R225" t="s">
         <v>3790</v>
       </c>
-    </row>
-    <row r="226" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S225" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="226" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>343</v>
       </c>
@@ -32078,8 +33561,11 @@
       <c r="R226" t="s">
         <v>3791</v>
       </c>
-    </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S226" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="227" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>345</v>
       </c>
@@ -32131,8 +33617,11 @@
       <c r="R227" t="s">
         <v>2177</v>
       </c>
-    </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S227" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="228" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>346</v>
       </c>
@@ -32184,8 +33673,11 @@
       <c r="R228" t="s">
         <v>2178</v>
       </c>
-    </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S228" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="229" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>347</v>
       </c>
@@ -32237,8 +33729,11 @@
       <c r="R229" t="s">
         <v>3792</v>
       </c>
-    </row>
-    <row r="230" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S229" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="230" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>349</v>
       </c>
@@ -32290,8 +33785,11 @@
       <c r="R230" t="s">
         <v>3793</v>
       </c>
-    </row>
-    <row r="231" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S230" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="231" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>351</v>
       </c>
@@ -32343,8 +33841,11 @@
       <c r="R231" t="s">
         <v>3794</v>
       </c>
-    </row>
-    <row r="232" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S231" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="232" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>353</v>
       </c>
@@ -32396,8 +33897,11 @@
       <c r="R232" t="s">
         <v>3795</v>
       </c>
-    </row>
-    <row r="233" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S232" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="233" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>355</v>
       </c>
@@ -32449,8 +33953,11 @@
       <c r="R233" t="s">
         <v>3796</v>
       </c>
-    </row>
-    <row r="234" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S233" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="234" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>357</v>
       </c>
@@ -32502,8 +34009,11 @@
       <c r="R234" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="235" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S234" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="235" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>6082</v>
       </c>
@@ -32511,7 +34021,7 @@
         <v>6517</v>
       </c>
     </row>
-    <row r="236" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>6083</v>
       </c>
@@ -32519,7 +34029,7 @@
         <v>6518</v>
       </c>
     </row>
-    <row r="237" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>358</v>
       </c>
@@ -32571,8 +34081,11 @@
       <c r="R237" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="238" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S237" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="238" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>6084</v>
       </c>
@@ -32580,7 +34093,7 @@
         <v>6519</v>
       </c>
     </row>
-    <row r="239" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>359</v>
       </c>
@@ -32632,8 +34145,11 @@
       <c r="R239" t="s">
         <v>3797</v>
       </c>
-    </row>
-    <row r="240" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S239" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="240" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>6085</v>
       </c>
@@ -32641,7 +34157,7 @@
         <v>6520</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>6086</v>
       </c>
@@ -32649,7 +34165,7 @@
         <v>6521</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>6549</v>
       </c>
@@ -32687,7 +34203,7 @@
         <v>6551</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>361</v>
       </c>
@@ -32742,8 +34258,11 @@
       <c r="R244" s="1" t="s">
         <v>5908</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S244" s="1" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>362</v>
       </c>
@@ -32795,8 +34314,11 @@
       <c r="R245" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S245" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>363</v>
       </c>
@@ -32848,8 +34370,11 @@
       <c r="R246" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S246" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>364</v>
       </c>
@@ -32901,8 +34426,11 @@
       <c r="R247" t="s">
         <v>2185</v>
       </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S247" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>365</v>
       </c>
@@ -32955,7 +34483,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>366</v>
       </c>
@@ -33008,7 +34536,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>367</v>
       </c>
@@ -33061,7 +34589,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>369</v>
       </c>
@@ -33114,7 +34642,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>371</v>
       </c>
@@ -33166,8 +34694,11 @@
       <c r="R252" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S252" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>372</v>
       </c>
@@ -33219,8 +34750,11 @@
       <c r="R253" t="s">
         <v>2189</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S253" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>373</v>
       </c>
@@ -33272,8 +34806,11 @@
       <c r="R254" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S254" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>374</v>
       </c>
@@ -33325,8 +34862,11 @@
       <c r="R255" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S255" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>375</v>
       </c>
@@ -33378,8 +34918,11 @@
       <c r="R256" t="s">
         <v>2190</v>
       </c>
-    </row>
-    <row r="257" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S256" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="257" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>376</v>
       </c>
@@ -33432,7 +34975,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="258" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>377</v>
       </c>
@@ -33485,7 +35028,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="259" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>6087</v>
       </c>
@@ -33535,17 +35078,17 @@
         <v>6128</v>
       </c>
     </row>
-    <row r="260" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>6546</v>
       </c>
     </row>
-    <row r="261" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>6547</v>
       </c>
     </row>
-    <row r="262" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>379</v>
       </c>
@@ -33597,8 +35140,11 @@
       <c r="R262" t="s">
         <v>3801</v>
       </c>
-    </row>
-    <row r="263" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S262" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="263" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>380</v>
       </c>
@@ -33651,7 +35197,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="264" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>381</v>
       </c>
@@ -33703,8 +35249,11 @@
       <c r="R264" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="265" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S264" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="265" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>382</v>
       </c>
@@ -33756,8 +35305,11 @@
       <c r="R265" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="266" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S265" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="266" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>383</v>
       </c>
@@ -33810,7 +35362,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="267" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>384</v>
       </c>
@@ -33863,7 +35415,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="268" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>385</v>
       </c>
@@ -33916,7 +35468,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="269" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>386</v>
       </c>
@@ -33969,7 +35521,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="270" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>387</v>
       </c>
@@ -34022,7 +35574,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="271" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>388</v>
       </c>
@@ -34074,13 +35626,16 @@
       <c r="R271" t="s">
         <v>2194</v>
       </c>
-    </row>
-    <row r="272" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S271" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="272" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>6545</v>
       </c>
     </row>
-    <row r="273" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>6129</v>
       </c>
@@ -34130,7 +35685,7 @@
         <v>6144</v>
       </c>
     </row>
-    <row r="274" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>390</v>
       </c>
@@ -34182,8 +35737,11 @@
       <c r="R274" t="s">
         <v>3804</v>
       </c>
-    </row>
-    <row r="275" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S274" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="275" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>392</v>
       </c>
@@ -34235,13 +35793,16 @@
       <c r="R275" t="s">
         <v>2196</v>
       </c>
-    </row>
-    <row r="276" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S275" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="276" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>6548</v>
       </c>
     </row>
-    <row r="277" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>393</v>
       </c>
@@ -34293,8 +35854,11 @@
       <c r="R277" t="s">
         <v>2197</v>
       </c>
-    </row>
-    <row r="278" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S277" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="278" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>394</v>
       </c>
@@ -34346,8 +35910,11 @@
       <c r="R278" t="s">
         <v>3805</v>
       </c>
-    </row>
-    <row r="279" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S278" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="279" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>395</v>
       </c>
@@ -34400,7 +35967,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="280" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>6088</v>
       </c>
@@ -34450,7 +36017,7 @@
         <v>6172</v>
       </c>
     </row>
-    <row r="281" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>397</v>
       </c>
@@ -34502,13 +36069,16 @@
       <c r="R281" t="s">
         <v>3807</v>
       </c>
-    </row>
-    <row r="282" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S281" t="s">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="282" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>6538</v>
       </c>
     </row>
-    <row r="283" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>399</v>
       </c>
@@ -34560,8 +36130,11 @@
       <c r="R283" t="s">
         <v>3808</v>
       </c>
-    </row>
-    <row r="284" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S283" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="284" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>6089</v>
       </c>
@@ -34611,7 +36184,7 @@
         <v>6187</v>
       </c>
     </row>
-    <row r="285" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>401</v>
       </c>
@@ -34663,8 +36236,11 @@
       <c r="R285" t="s">
         <v>3809</v>
       </c>
-    </row>
-    <row r="286" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S285" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="286" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>403</v>
       </c>
@@ -34716,8 +36292,11 @@
       <c r="R286" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="287" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S286" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="287" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>404</v>
       </c>
@@ -34769,8 +36348,11 @@
       <c r="R287" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="288" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S287" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="288" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>405</v>
       </c>
@@ -34822,8 +36404,11 @@
       <c r="R288" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="289" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S288" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="289" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>406</v>
       </c>
@@ -34875,8 +36460,11 @@
       <c r="R289" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="290" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S289" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="290" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>408</v>
       </c>
@@ -34928,8 +36516,11 @@
       <c r="R290" t="s">
         <v>3810</v>
       </c>
-    </row>
-    <row r="291" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S290" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="291" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>410</v>
       </c>
@@ -34981,8 +36572,11 @@
       <c r="R291" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="292" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S291" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="292" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>412</v>
       </c>
@@ -35034,8 +36628,11 @@
       <c r="R292" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="293" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S292" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="293" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>413</v>
       </c>
@@ -35087,8 +36684,11 @@
       <c r="R293" t="s">
         <v>3811</v>
       </c>
-    </row>
-    <row r="294" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S293" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="294" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>415</v>
       </c>
@@ -35140,8 +36740,11 @@
       <c r="R294" t="s">
         <v>3812</v>
       </c>
-    </row>
-    <row r="295" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S294" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="295" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>417</v>
       </c>
@@ -35194,7 +36797,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="296" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>419</v>
       </c>
@@ -35246,8 +36849,11 @@
       <c r="R296" t="s">
         <v>3814</v>
       </c>
-    </row>
-    <row r="297" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S296" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="297" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>421</v>
       </c>
@@ -35299,8 +36905,11 @@
       <c r="R297" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="298" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S297" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="298" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>422</v>
       </c>
@@ -35352,8 +36961,11 @@
       <c r="R298" t="s">
         <v>3815</v>
       </c>
-    </row>
-    <row r="299" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S298" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="299" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
         <v>424</v>
       </c>
@@ -35405,8 +37017,11 @@
       <c r="R299" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="300" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S299" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="300" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>426</v>
       </c>
@@ -35458,8 +37073,11 @@
       <c r="R300" t="s">
         <v>2209</v>
       </c>
-    </row>
-    <row r="301" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S300" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="301" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>427</v>
       </c>
@@ -35511,8 +37129,11 @@
       <c r="R301" t="s">
         <v>2210</v>
       </c>
-    </row>
-    <row r="302" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S301" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="302" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>428</v>
       </c>
@@ -35564,8 +37185,11 @@
       <c r="R302" t="s">
         <v>3816</v>
       </c>
-    </row>
-    <row r="303" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S302" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="303" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>6090</v>
       </c>
@@ -35573,7 +37197,7 @@
         <v>6522</v>
       </c>
     </row>
-    <row r="304" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>430</v>
       </c>
@@ -35625,8 +37249,11 @@
       <c r="R304" t="s">
         <v>3817</v>
       </c>
-    </row>
-    <row r="305" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S304" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="305" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>432</v>
       </c>
@@ -35678,8 +37305,11 @@
       <c r="R305" t="s">
         <v>3818</v>
       </c>
-    </row>
-    <row r="306" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S305" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="306" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>434</v>
       </c>
@@ -35731,8 +37361,11 @@
       <c r="R306" t="s">
         <v>3819</v>
       </c>
-    </row>
-    <row r="307" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S306" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="307" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>6221</v>
       </c>
@@ -35776,7 +37409,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="308" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>6222</v>
       </c>
@@ -35820,7 +37453,7 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="309" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>436</v>
       </c>
@@ -35872,8 +37505,11 @@
       <c r="R309" t="s">
         <v>3820</v>
       </c>
-    </row>
-    <row r="310" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S309" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="310" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>438</v>
       </c>
@@ -35925,8 +37561,11 @@
       <c r="R310" t="s">
         <v>3821</v>
       </c>
-    </row>
-    <row r="311" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S310" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="311" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>440</v>
       </c>
@@ -35979,7 +37618,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="312" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>441</v>
       </c>
@@ -36032,7 +37671,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="313" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>442</v>
       </c>
@@ -36084,8 +37723,11 @@
       <c r="R313" t="s">
         <v>3822</v>
       </c>
-    </row>
-    <row r="314" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S313" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="314" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>6091</v>
       </c>
@@ -36093,7 +37735,7 @@
         <v>6523</v>
       </c>
     </row>
-    <row r="315" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>444</v>
       </c>
@@ -36145,8 +37787,11 @@
       <c r="R315" t="s">
         <v>2218</v>
       </c>
-    </row>
-    <row r="316" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S315" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="316" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>446</v>
       </c>
@@ -36198,8 +37843,11 @@
       <c r="R316" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="317" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S316" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="317" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>447</v>
       </c>
@@ -36251,8 +37899,11 @@
       <c r="R317" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="318" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S317" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="318" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>448</v>
       </c>
@@ -36304,8 +37955,11 @@
       <c r="R318" t="s">
         <v>3823</v>
       </c>
-    </row>
-    <row r="319" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S318" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="319" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>450</v>
       </c>
@@ -36357,8 +38011,11 @@
       <c r="R319" t="s">
         <v>3824</v>
       </c>
-    </row>
-    <row r="320" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S319" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="320" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>0</v>
       </c>
@@ -36410,8 +38067,11 @@
       <c r="R320" t="s">
         <v>3825</v>
       </c>
-    </row>
-    <row r="321" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S320" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="321" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>453</v>
       </c>
@@ -36463,8 +38123,11 @@
       <c r="R321" t="s">
         <v>3826</v>
       </c>
-    </row>
-    <row r="322" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S321" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="322" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>455</v>
       </c>
@@ -36516,8 +38179,11 @@
       <c r="R322" t="s">
         <v>3827</v>
       </c>
-    </row>
-    <row r="323" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S322" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="323" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>457</v>
       </c>
@@ -36569,8 +38235,11 @@
       <c r="R323" t="s">
         <v>3828</v>
       </c>
-    </row>
-    <row r="324" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S323" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="324" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>459</v>
       </c>
@@ -36622,8 +38291,11 @@
       <c r="R324" t="s">
         <v>3829</v>
       </c>
-    </row>
-    <row r="325" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S324" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="325" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>461</v>
       </c>
@@ -36675,8 +38347,11 @@
       <c r="R325" t="s">
         <v>3830</v>
       </c>
-    </row>
-    <row r="326" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S325" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="326" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>463</v>
       </c>
@@ -36728,8 +38403,11 @@
       <c r="R326" t="s">
         <v>3831</v>
       </c>
-    </row>
-    <row r="327" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S326" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="327" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>465</v>
       </c>
@@ -36781,8 +38459,11 @@
       <c r="R327" t="s">
         <v>3832</v>
       </c>
-    </row>
-    <row r="328" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S327" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="328" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>467</v>
       </c>
@@ -36834,13 +38515,16 @@
       <c r="R328" t="s">
         <v>3833</v>
       </c>
-    </row>
-    <row r="329" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S328" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="329" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>6544</v>
       </c>
     </row>
-    <row r="330" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>469</v>
       </c>
@@ -36892,8 +38576,11 @@
       <c r="R330" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="331" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S330" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="331" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B331" t="s">
         <v>470</v>
       </c>
@@ -36945,18 +38632,21 @@
       <c r="R331" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="332" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S331" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="332" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>6540</v>
       </c>
     </row>
-    <row r="333" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>6541</v>
       </c>
     </row>
-    <row r="334" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>471</v>
       </c>
@@ -37008,23 +38698,26 @@
       <c r="R334" t="s">
         <v>3834</v>
       </c>
-    </row>
-    <row r="335" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S334" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="335" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>6539</v>
       </c>
     </row>
-    <row r="336" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>6542</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>6543</v>
       </c>
     </row>
-    <row r="339" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>501</v>
       </c>
@@ -37079,8 +38772,11 @@
       <c r="R339" s="1" t="s">
         <v>5909</v>
       </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S339" s="1" t="s">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
         <v>502</v>
       </c>
@@ -37132,8 +38828,11 @@
       <c r="R340" t="s">
         <v>3835</v>
       </c>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S340" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>1</v>
       </c>
@@ -37185,8 +38884,11 @@
       <c r="R341" t="s">
         <v>3836</v>
       </c>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S341" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
         <v>505</v>
       </c>
@@ -37238,8 +38940,11 @@
       <c r="R342" t="s">
         <v>3837</v>
       </c>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S342" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
         <v>506</v>
       </c>
@@ -37291,8 +38996,11 @@
       <c r="R343" t="s">
         <v>3838</v>
       </c>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S343" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>508</v>
       </c>
@@ -37344,8 +39052,11 @@
       <c r="R344" t="s">
         <v>3839</v>
       </c>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S344" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>510</v>
       </c>
@@ -37398,7 +39109,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>512</v>
       </c>
@@ -37451,7 +39162,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>514</v>
       </c>
@@ -37504,7 +39215,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>516</v>
       </c>
@@ -37557,7 +39268,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>518</v>
       </c>
@@ -37610,7 +39321,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>520</v>
       </c>
@@ -37663,7 +39374,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
         <v>522</v>
       </c>
@@ -37716,7 +39427,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>524</v>
       </c>
@@ -37769,7 +39480,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="353" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B353" t="s">
         <v>526</v>
       </c>
@@ -37822,7 +39533,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="354" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B354" t="s">
         <v>528</v>
       </c>
@@ -37875,7 +39586,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="355" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>529</v>
       </c>
@@ -37928,7 +39639,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="356" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B356" t="s">
         <v>531</v>
       </c>
@@ -37981,7 +39692,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="357" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>533</v>
       </c>
@@ -38033,8 +39744,11 @@
       <c r="R357" t="s">
         <v>3849</v>
       </c>
-    </row>
-    <row r="358" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S357" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="358" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>535</v>
       </c>
@@ -38086,8 +39800,11 @@
       <c r="R358" t="s">
         <v>3850</v>
       </c>
-    </row>
-    <row r="359" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S358" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="359" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>537</v>
       </c>
@@ -38139,8 +39856,11 @@
       <c r="R359" t="s">
         <v>3851</v>
       </c>
-    </row>
-    <row r="360" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S359" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="360" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>539</v>
       </c>
@@ -38192,8 +39912,11 @@
       <c r="R360" t="s">
         <v>3852</v>
       </c>
-    </row>
-    <row r="361" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S360" t="s">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="361" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B361" t="s">
         <v>541</v>
       </c>
@@ -38245,8 +39968,11 @@
       <c r="R361" t="s">
         <v>3853</v>
       </c>
-    </row>
-    <row r="362" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S361" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="362" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B362" t="s">
         <v>543</v>
       </c>
@@ -38298,8 +40024,11 @@
       <c r="R362" t="s">
         <v>3854</v>
       </c>
-    </row>
-    <row r="363" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S362" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="363" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>545</v>
       </c>
@@ -38352,7 +40081,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="364" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>547</v>
       </c>
@@ -38405,7 +40134,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="365" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>549</v>
       </c>
@@ -38457,8 +40186,11 @@
       <c r="R365" t="s">
         <v>3855</v>
       </c>
-    </row>
-    <row r="366" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S365" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="366" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>551</v>
       </c>
@@ -38511,7 +40243,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="367" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B367" t="s">
         <v>553</v>
       </c>
@@ -38564,7 +40296,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="368" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B368" t="s">
         <v>555</v>
       </c>
@@ -38617,7 +40349,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="369" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>557</v>
       </c>
@@ -38670,7 +40402,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="370" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>559</v>
       </c>
@@ -38723,7 +40455,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="371" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>561</v>
       </c>
@@ -38776,7 +40508,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="372" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>562</v>
       </c>
@@ -38828,8 +40560,11 @@
       <c r="R372" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="373" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S372" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="373" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B373" t="s">
         <v>563</v>
       </c>
@@ -38881,8 +40616,11 @@
       <c r="R373" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="374" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S373" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="374" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>565</v>
       </c>
@@ -38935,7 +40673,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="375" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>567</v>
       </c>
@@ -38988,7 +40726,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="376" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>569</v>
       </c>
@@ -39041,7 +40779,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="377" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>571</v>
       </c>
@@ -39094,7 +40832,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="378" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>573</v>
       </c>
@@ -39147,7 +40885,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="379" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>575</v>
       </c>
@@ -39199,8 +40937,11 @@
       <c r="R379" t="s">
         <v>2257</v>
       </c>
-    </row>
-    <row r="380" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S379" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="380" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>577</v>
       </c>
@@ -39253,7 +40994,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="381" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>578</v>
       </c>
@@ -39306,7 +41047,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="382" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B382" t="s">
         <v>580</v>
       </c>
@@ -39359,7 +41100,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="383" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>582</v>
       </c>
@@ -39411,8 +41152,11 @@
       <c r="R383" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="384" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S383" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="384" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>584</v>
       </c>
@@ -39465,7 +41209,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="385" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>586</v>
       </c>
@@ -39518,7 +41262,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="386" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>587</v>
       </c>
@@ -39570,8 +41314,11 @@
       <c r="R386" t="s">
         <v>3861</v>
       </c>
-    </row>
-    <row r="387" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S386" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="387" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>589</v>
       </c>
@@ -39623,8 +41370,11 @@
       <c r="R387" t="s">
         <v>3862</v>
       </c>
-    </row>
-    <row r="388" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S387" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="388" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>591</v>
       </c>
@@ -39676,8 +41426,11 @@
       <c r="R388" t="s">
         <v>3863</v>
       </c>
-    </row>
-    <row r="389" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S388" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="389" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>593</v>
       </c>
@@ -39730,7 +41483,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="390" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>595</v>
       </c>
@@ -39782,8 +41535,11 @@
       <c r="R390" t="s">
         <v>3865</v>
       </c>
-    </row>
-    <row r="391" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S390" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="391" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B391" t="s">
         <v>597</v>
       </c>
@@ -39835,8 +41591,11 @@
       <c r="R391" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="392" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S391" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="392" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>599</v>
       </c>
@@ -39888,8 +41647,11 @@
       <c r="R392" t="s">
         <v>3866</v>
       </c>
-    </row>
-    <row r="393" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S392" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="393" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>601</v>
       </c>
@@ -39941,8 +41703,11 @@
       <c r="R393" t="s">
         <v>3867</v>
       </c>
-    </row>
-    <row r="394" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S393" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="394" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>603</v>
       </c>
@@ -39994,8 +41759,11 @@
       <c r="R394" t="s">
         <v>3868</v>
       </c>
-    </row>
-    <row r="395" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S394" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="395" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B395" t="s">
         <v>605</v>
       </c>
@@ -40048,7 +41816,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="396" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>607</v>
       </c>
@@ -40101,7 +41869,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="397" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B397" t="s">
         <v>609</v>
       </c>
@@ -40153,8 +41921,11 @@
       <c r="R397" t="s">
         <v>3869</v>
       </c>
-    </row>
-    <row r="398" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S397" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="398" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B398" t="s">
         <v>610</v>
       </c>
@@ -40206,8 +41977,11 @@
       <c r="R398" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="399" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S398" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="399" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B399" t="s">
         <v>611</v>
       </c>
@@ -40260,7 +42034,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="400" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B400" t="s">
         <v>613</v>
       </c>
@@ -40312,8 +42086,11 @@
       <c r="R400" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="401" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S400" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="401" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>615</v>
       </c>
@@ -40365,8 +42142,11 @@
       <c r="R401" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="402" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S401" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="402" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B402" t="s">
         <v>616</v>
       </c>
@@ -40418,8 +42198,11 @@
       <c r="R402" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="403" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S402" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="403" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B403" t="s">
         <v>617</v>
       </c>
@@ -40472,7 +42255,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="404" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>619</v>
       </c>
@@ -40525,7 +42308,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="405" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B405" t="s">
         <v>621</v>
       </c>
@@ -40578,7 +42361,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="406" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>623</v>
       </c>
@@ -40631,7 +42414,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="407" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B407" t="s">
         <v>625</v>
       </c>
@@ -40684,7 +42467,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="408" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>627</v>
       </c>
@@ -40737,7 +42520,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="409" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>629</v>
       </c>
@@ -40790,7 +42573,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="410" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>631</v>
       </c>
@@ -40843,7 +42626,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="411" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B411" t="s">
         <v>633</v>
       </c>
@@ -40895,8 +42678,11 @@
       <c r="R411" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="412" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S411" t="s">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="412" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>634</v>
       </c>
@@ -40949,7 +42735,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="413" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B413" t="s">
         <v>636</v>
       </c>
@@ -41002,7 +42788,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="414" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B414" t="s">
         <v>638</v>
       </c>
@@ -41055,7 +42841,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="415" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>640</v>
       </c>
@@ -41108,7 +42894,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="416" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>642</v>
       </c>
@@ -41160,8 +42946,11 @@
       <c r="R416" t="s">
         <v>3881</v>
       </c>
-    </row>
-    <row r="417" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S416" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="417" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>644</v>
       </c>
@@ -41214,7 +43003,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="418" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>645</v>
       </c>
@@ -41267,7 +43056,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="419" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>646</v>
       </c>
@@ -41320,7 +43109,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="420" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>648</v>
       </c>
@@ -41372,8 +43161,11 @@
       <c r="R420" t="s">
         <v>3883</v>
       </c>
-    </row>
-    <row r="421" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S420" t="s">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="421" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B421" t="s">
         <v>650</v>
       </c>
@@ -41426,7 +43218,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="422" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>652</v>
       </c>
@@ -41479,7 +43271,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="423" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>654</v>
       </c>
@@ -41532,7 +43324,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="424" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>656</v>
       </c>
@@ -41585,7 +43377,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="425" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>658</v>
       </c>
@@ -41637,8 +43429,11 @@
       <c r="R425" t="s">
         <v>3888</v>
       </c>
-    </row>
-    <row r="426" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S425" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="426" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>660</v>
       </c>
@@ -41690,8 +43485,11 @@
       <c r="R426" t="s">
         <v>3889</v>
       </c>
-    </row>
-    <row r="427" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S426" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="427" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B427" t="s">
         <v>662</v>
       </c>
@@ -41744,7 +43542,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="428" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>664</v>
       </c>
@@ -41796,8 +43594,11 @@
       <c r="R428" t="s">
         <v>3891</v>
       </c>
-    </row>
-    <row r="429" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S428" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="429" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>666</v>
       </c>
@@ -41849,8 +43650,11 @@
       <c r="R429" t="s">
         <v>3892</v>
       </c>
-    </row>
-    <row r="430" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S429" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="430" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B430" t="s">
         <v>668</v>
       </c>
@@ -41902,8 +43706,11 @@
       <c r="R430" t="s">
         <v>3893</v>
       </c>
-    </row>
-    <row r="431" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S430" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="431" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>670</v>
       </c>
@@ -41956,7 +43763,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="432" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>672</v>
       </c>
@@ -42009,7 +43816,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="433" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B433" t="s">
         <v>674</v>
       </c>
@@ -42061,8 +43868,11 @@
       <c r="R433" t="s">
         <v>3896</v>
       </c>
-    </row>
-    <row r="434" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S433" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="434" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>675</v>
       </c>
@@ -42114,8 +43924,11 @@
       <c r="R434" t="s">
         <v>3897</v>
       </c>
-    </row>
-    <row r="435" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S434" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="435" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B435" t="s">
         <v>676</v>
       </c>
@@ -42167,8 +43980,11 @@
       <c r="R435" t="s">
         <v>3898</v>
       </c>
-    </row>
-    <row r="436" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S435" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="436" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>678</v>
       </c>
@@ -42221,7 +44037,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="437" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B437" t="s">
         <v>680</v>
       </c>
@@ -42274,7 +44090,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="438" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>682</v>
       </c>
@@ -42327,7 +44143,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="439" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>684</v>
       </c>
@@ -42380,7 +44196,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="440" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>686</v>
       </c>
@@ -42433,7 +44249,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="441" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B441" t="s">
         <v>688</v>
       </c>
@@ -42486,7 +44302,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="442" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B442" t="s">
         <v>689</v>
       </c>
@@ -42538,8 +44354,11 @@
       <c r="R442" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="443" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S442" t="s">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="443" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B443" t="s">
         <v>691</v>
       </c>
@@ -42591,8 +44410,11 @@
       <c r="R443" t="s">
         <v>3900</v>
       </c>
-    </row>
-    <row r="444" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S443" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="444" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B444" t="s">
         <v>693</v>
       </c>
@@ -42645,7 +44467,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="445" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B445" t="s">
         <v>695</v>
       </c>
@@ -42698,7 +44520,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="446" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B446" t="s">
         <v>696</v>
       </c>
@@ -42750,8 +44572,11 @@
       <c r="R446" t="s">
         <v>3901</v>
       </c>
-    </row>
-    <row r="447" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S446" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="447" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B447" t="s">
         <v>697</v>
       </c>
@@ -42803,8 +44628,11 @@
       <c r="R447" t="s">
         <v>3902</v>
       </c>
-    </row>
-    <row r="448" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S447" t="s">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="448" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B448" t="s">
         <v>698</v>
       </c>
@@ -42857,7 +44685,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B449" t="s">
         <v>700</v>
       </c>
@@ -42910,7 +44738,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="451" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>701</v>
       </c>
@@ -42965,8 +44793,11 @@
       <c r="R451" s="1" t="s">
         <v>5911</v>
       </c>
-    </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S451" s="1" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="452" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A452"/>
       <c r="B452" t="s">
         <v>6092</v>
@@ -42974,8 +44805,11 @@
       <c r="R452" t="s">
         <v>6113</v>
       </c>
-    </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S452" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="453" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A453"/>
       <c r="B453" t="s">
         <v>6093</v>
@@ -42984,7 +44818,7 @@
         <v>6524</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B454" t="s">
         <v>702</v>
       </c>
@@ -43036,8 +44870,11 @@
       <c r="R454" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S454" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="455" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B455" t="s">
         <v>703</v>
       </c>
@@ -43089,8 +44926,11 @@
       <c r="R455" t="s">
         <v>3904</v>
       </c>
-    </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S455" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="456" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B456" t="s">
         <v>705</v>
       </c>
@@ -43142,8 +44982,11 @@
       <c r="R456" t="s">
         <v>3905</v>
       </c>
-    </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S456" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="457" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B457" t="s">
         <v>707</v>
       </c>
@@ -43195,8 +45038,11 @@
       <c r="R457" t="s">
         <v>2310</v>
       </c>
-    </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S457" t="s">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="458" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B458" t="s">
         <v>708</v>
       </c>
@@ -43249,7 +45095,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B459" t="s">
         <v>6094</v>
       </c>
@@ -43257,7 +45103,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B460" t="s">
         <v>709</v>
       </c>
@@ -43309,8 +45155,11 @@
       <c r="R460" t="s">
         <v>3251</v>
       </c>
-    </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S460" t="s">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="461" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B461" t="s">
         <v>711</v>
       </c>
@@ -43362,8 +45211,11 @@
       <c r="R461" t="s">
         <v>2312</v>
       </c>
-    </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S461" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="462" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B462" t="s">
         <v>712</v>
       </c>
@@ -43415,16 +45267,22 @@
       <c r="R462" t="s">
         <v>3907</v>
       </c>
-    </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S462" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="463" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B463" t="s">
         <v>6095</v>
       </c>
       <c r="G463" t="s">
         <v>6526</v>
       </c>
-    </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S463" t="s">
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="464" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B464" t="s">
         <v>714</v>
       </c>
@@ -43476,8 +45334,11 @@
       <c r="R464" t="s">
         <v>3908</v>
       </c>
-    </row>
-    <row r="465" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S464" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="465" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B465" t="s">
         <v>6188</v>
       </c>
@@ -43518,7 +45379,7 @@
         <v>6197</v>
       </c>
     </row>
-    <row r="466" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B466" t="s">
         <v>716</v>
       </c>
@@ -43570,16 +45431,22 @@
       <c r="R466" t="s">
         <v>2314</v>
       </c>
-    </row>
-    <row r="467" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S466" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="467" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B467" t="s">
         <v>6096</v>
       </c>
       <c r="G467" t="s">
         <v>6527</v>
       </c>
-    </row>
-    <row r="468" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S467" t="s">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="468" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B468" t="s">
         <v>718</v>
       </c>
@@ -43631,16 +45498,22 @@
       <c r="R468" t="s">
         <v>3909</v>
       </c>
-    </row>
-    <row r="469" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S468" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="469" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B469" t="s">
         <v>6097</v>
       </c>
       <c r="G469" t="s">
         <v>6528</v>
       </c>
-    </row>
-    <row r="470" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S469" t="s">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="470" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B470" t="s">
         <v>720</v>
       </c>
@@ -43692,8 +45565,11 @@
       <c r="R470" t="s">
         <v>3910</v>
       </c>
-    </row>
-    <row r="471" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S470" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="471" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B471" t="s">
         <v>722</v>
       </c>
@@ -43745,16 +45621,22 @@
       <c r="R471" t="s">
         <v>3911</v>
       </c>
-    </row>
-    <row r="472" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S471" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="472" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B472" t="s">
         <v>6098</v>
       </c>
       <c r="G472" t="s">
         <v>6529</v>
       </c>
-    </row>
-    <row r="473" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S472" t="s">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="473" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B473" t="s">
         <v>6198</v>
       </c>
@@ -43795,7 +45677,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="474" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B474" t="s">
         <v>724</v>
       </c>
@@ -43848,7 +45730,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="475" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B475" t="s">
         <v>6099</v>
       </c>
@@ -43888,8 +45770,11 @@
       <c r="R475" t="s">
         <v>6218</v>
       </c>
-    </row>
-    <row r="476" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S475" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="476" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B476" t="s">
         <v>726</v>
       </c>
@@ -43941,8 +45826,11 @@
       <c r="R476" t="s">
         <v>3913</v>
       </c>
-    </row>
-    <row r="477" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S476" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="477" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B477" t="s">
         <v>728</v>
       </c>
@@ -43994,16 +45882,22 @@
       <c r="R477" t="s">
         <v>3914</v>
       </c>
-    </row>
-    <row r="478" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S477" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="478" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B478" t="s">
         <v>6100</v>
       </c>
       <c r="G478" t="s">
         <v>6530</v>
       </c>
-    </row>
-    <row r="479" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S478" t="s">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="479" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B479" t="s">
         <v>730</v>
       </c>
@@ -44055,8 +45949,11 @@
       <c r="R479" t="s">
         <v>3915</v>
       </c>
-    </row>
-    <row r="480" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S479" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="480" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B480" t="s">
         <v>731</v>
       </c>
@@ -44108,16 +46005,22 @@
       <c r="R480" t="s">
         <v>3916</v>
       </c>
-    </row>
-    <row r="481" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S480" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="481" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B481" t="s">
         <v>6101</v>
       </c>
       <c r="G481" t="s">
         <v>6531</v>
       </c>
-    </row>
-    <row r="482" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S481" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="482" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B482" t="s">
         <v>733</v>
       </c>
@@ -44169,16 +46072,22 @@
       <c r="R482" t="s">
         <v>3917</v>
       </c>
-    </row>
-    <row r="483" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S482" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="483" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B483" t="s">
         <v>6102</v>
       </c>
       <c r="G483" t="s">
         <v>6532</v>
       </c>
-    </row>
-    <row r="484" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S483" t="s">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="484" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B484" t="s">
         <v>735</v>
       </c>
@@ -44230,8 +46139,11 @@
       <c r="R484" t="s">
         <v>3918</v>
       </c>
-    </row>
-    <row r="485" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S484" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="485" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B485" t="s">
         <v>737</v>
       </c>
@@ -44283,8 +46195,11 @@
       <c r="R485" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="486" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S485" t="s">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="486" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B486" t="s">
         <v>738</v>
       </c>
@@ -44336,18 +46251,21 @@
       <c r="R486" t="s">
         <v>2325</v>
       </c>
-    </row>
-    <row r="487" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S486" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="487" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B487" t="s">
         <v>6535</v>
       </c>
     </row>
-    <row r="488" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B488" t="s">
         <v>6536</v>
       </c>
     </row>
-    <row r="489" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B489" t="s">
         <v>740</v>
       </c>
@@ -44400,12 +46318,12 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="490" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B490" t="s">
         <v>6537</v>
       </c>
     </row>
-    <row r="491" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B491" t="s">
         <v>6289</v>
       </c>
@@ -44449,7 +46367,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="492" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B492" t="s">
         <v>6290</v>
       </c>
@@ -44493,7 +46411,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="493" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B493" t="s">
         <v>6291</v>
       </c>
@@ -44537,7 +46455,7 @@
         <v>6329</v>
       </c>
     </row>
-    <row r="494" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B494" t="s">
         <v>6292</v>
       </c>
@@ -44581,7 +46499,7 @@
         <v>6342</v>
       </c>
     </row>
-    <row r="495" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B495" t="s">
         <v>213</v>
       </c>
@@ -44633,8 +46551,11 @@
       <c r="R495" t="s">
         <v>3919</v>
       </c>
-    </row>
-    <row r="496" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S495" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="496" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B496" t="s">
         <v>743</v>
       </c>
@@ -44687,7 +46608,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B497" t="s">
         <v>745</v>
       </c>
@@ -44740,7 +46661,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B498" t="s">
         <v>746</v>
       </c>
@@ -44792,8 +46713,11 @@
       <c r="R498" t="s">
         <v>3921</v>
       </c>
-    </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S498" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="499" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B499" t="s">
         <v>748</v>
       </c>
@@ -44845,8 +46769,11 @@
       <c r="R499" t="s">
         <v>3922</v>
       </c>
-    </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S499" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="500" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B500" t="s">
         <v>6103</v>
       </c>
@@ -44854,7 +46781,7 @@
         <v>6533</v>
       </c>
     </row>
-    <row r="502" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>750</v>
       </c>
@@ -44910,7 +46837,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B503" t="s">
         <v>751</v>
       </c>
@@ -44963,7 +46890,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B504" t="s">
         <v>753</v>
       </c>
@@ -45016,7 +46943,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B505" t="s">
         <v>755</v>
       </c>
@@ -45069,7 +46996,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="508" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>757</v>
       </c>
@@ -45125,7 +47052,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B509" t="s">
         <v>758</v>
       </c>
@@ -45177,8 +47104,11 @@
       <c r="R509" t="s">
         <v>2231</v>
       </c>
-    </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S509" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="510" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B510" t="s">
         <v>760</v>
       </c>
@@ -45230,8 +47160,11 @@
       <c r="R510" t="s">
         <v>3925</v>
       </c>
-    </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S510" t="s">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="511" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B511" t="s">
         <v>762</v>
       </c>
@@ -45283,8 +47216,11 @@
       <c r="R511" t="s">
         <v>3926</v>
       </c>
-    </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S511" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="512" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B512" t="s">
         <v>764</v>
       </c>
@@ -45336,8 +47272,11 @@
       <c r="R512" t="s">
         <v>3927</v>
       </c>
-    </row>
-    <row r="513" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S512" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="513" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B513" t="s">
         <v>766</v>
       </c>
@@ -45389,8 +47328,11 @@
       <c r="R513" t="s">
         <v>3928</v>
       </c>
-    </row>
-    <row r="514" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S513" t="s">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="514" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B514" t="s">
         <v>768</v>
       </c>
@@ -45442,8 +47384,11 @@
       <c r="R514" t="s">
         <v>3929</v>
       </c>
-    </row>
-    <row r="515" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S514" t="s">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="515" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B515" t="s">
         <v>770</v>
       </c>
@@ -45495,8 +47440,11 @@
       <c r="R515" t="s">
         <v>3930</v>
       </c>
-    </row>
-    <row r="516" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S515" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="516" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B516" t="s">
         <v>772</v>
       </c>
@@ -45548,8 +47496,11 @@
       <c r="R516" t="s">
         <v>3931</v>
       </c>
-    </row>
-    <row r="517" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S516" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="517" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B517" t="s">
         <v>774</v>
       </c>
@@ -45601,8 +47552,11 @@
       <c r="R517" t="s">
         <v>3932</v>
       </c>
-    </row>
-    <row r="518" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S517" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="518" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B518" t="s">
         <v>776</v>
       </c>
@@ -45654,8 +47608,11 @@
       <c r="R518" t="s">
         <v>2339</v>
       </c>
-    </row>
-    <row r="519" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S518" t="s">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="519" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B519" t="s">
         <v>778</v>
       </c>
@@ -45707,8 +47664,11 @@
       <c r="R519" t="s">
         <v>3933</v>
       </c>
-    </row>
-    <row r="520" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S519" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="520" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B520" t="s">
         <v>780</v>
       </c>
@@ -45760,8 +47720,11 @@
       <c r="R520" t="s">
         <v>2251</v>
       </c>
-    </row>
-    <row r="521" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S520" t="s">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="521" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B521" t="s">
         <v>782</v>
       </c>
@@ -45813,8 +47776,11 @@
       <c r="R521" t="s">
         <v>2341</v>
       </c>
-    </row>
-    <row r="522" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S521" t="s">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="522" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B522" t="s">
         <v>784</v>
       </c>
@@ -45866,8 +47832,11 @@
       <c r="R522" t="s">
         <v>3934</v>
       </c>
-    </row>
-    <row r="523" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S522" t="s">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="523" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B523" t="s">
         <v>786</v>
       </c>
@@ -45919,8 +47888,11 @@
       <c r="R523" t="s">
         <v>3935</v>
       </c>
-    </row>
-    <row r="524" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S523" t="s">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="524" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B524" t="s">
         <v>788</v>
       </c>
@@ -45972,8 +47944,11 @@
       <c r="R524" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="525" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S524" t="s">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="525" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B525" t="s">
         <v>790</v>
       </c>
@@ -46025,8 +48000,11 @@
       <c r="R525" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="526" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S525" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="526" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B526" t="s">
         <v>792</v>
       </c>
@@ -46078,8 +48056,11 @@
       <c r="R526" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="527" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S526" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="527" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B527" t="s">
         <v>794</v>
       </c>
@@ -46131,8 +48112,11 @@
       <c r="R527" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="528" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S527" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="528" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B528" t="s">
         <v>796</v>
       </c>
@@ -46184,8 +48168,11 @@
       <c r="R528" t="s">
         <v>3936</v>
       </c>
-    </row>
-    <row r="529" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S528" t="s">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="529" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B529" t="s">
         <v>798</v>
       </c>
@@ -46237,8 +48224,11 @@
       <c r="R529" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="530" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S529" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="530" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B530" t="s">
         <v>800</v>
       </c>
@@ -46290,8 +48280,11 @@
       <c r="R530" t="s">
         <v>3937</v>
       </c>
-    </row>
-    <row r="531" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S530" t="s">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="531" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B531" t="s">
         <v>802</v>
       </c>
@@ -46343,8 +48336,11 @@
       <c r="R531" t="s">
         <v>3651</v>
       </c>
-    </row>
-    <row r="532" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S531" t="s">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="532" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B532" t="s">
         <v>803</v>
       </c>
@@ -46396,8 +48392,11 @@
       <c r="R532" t="s">
         <v>2272</v>
       </c>
-    </row>
-    <row r="533" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S532" t="s">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="533" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B533" t="s">
         <v>805</v>
       </c>
@@ -46449,8 +48448,11 @@
       <c r="R533" t="s">
         <v>3938</v>
       </c>
-    </row>
-    <row r="534" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S533" t="s">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="534" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B534" t="s">
         <v>807</v>
       </c>
@@ -46502,8 +48504,11 @@
       <c r="R534" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="535" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S534" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="535" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B535" t="s">
         <v>809</v>
       </c>
@@ -46555,8 +48560,11 @@
       <c r="R535" t="s">
         <v>3939</v>
       </c>
-    </row>
-    <row r="536" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S535" t="s">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="536" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B536" t="s">
         <v>811</v>
       </c>
@@ -46608,8 +48616,11 @@
       <c r="R536" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="537" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S536" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="537" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B537" t="s">
         <v>813</v>
       </c>
@@ -46661,8 +48672,11 @@
       <c r="R537" t="s">
         <v>3940</v>
       </c>
-    </row>
-    <row r="538" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S537" t="s">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="538" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B538" t="s">
         <v>815</v>
       </c>
@@ -46714,8 +48728,11 @@
       <c r="R538" t="s">
         <v>3941</v>
       </c>
-    </row>
-    <row r="539" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S538" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="539" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B539" t="s">
         <v>817</v>
       </c>
@@ -46767,8 +48784,11 @@
       <c r="R539" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="540" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S539" t="s">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="540" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B540" t="s">
         <v>819</v>
       </c>
@@ -46820,8 +48840,11 @@
       <c r="R540" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="541" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S540" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="541" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B541" t="s">
         <v>820</v>
       </c>
@@ -46873,8 +48896,11 @@
       <c r="R541" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="542" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S541" t="s">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="542" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B542" t="s">
         <v>822</v>
       </c>
@@ -46926,8 +48952,11 @@
       <c r="R542" t="s">
         <v>3942</v>
       </c>
-    </row>
-    <row r="543" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S542" t="s">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="543" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B543" t="s">
         <v>824</v>
       </c>
@@ -46979,8 +49008,11 @@
       <c r="R543" t="s">
         <v>3943</v>
       </c>
-    </row>
-    <row r="544" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S543" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="544" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B544" t="s">
         <v>826</v>
       </c>
@@ -47032,8 +49064,11 @@
       <c r="R544" t="s">
         <v>2358</v>
       </c>
-    </row>
-    <row r="545" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S544" t="s">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="545" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B545" t="s">
         <v>828</v>
       </c>
@@ -47085,8 +49120,11 @@
       <c r="R545" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="546" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S545" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="546" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B546" t="s">
         <v>830</v>
       </c>
@@ -47138,8 +49176,11 @@
       <c r="R546" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="547" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S546" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="547" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B547" t="s">
         <v>832</v>
       </c>
@@ -47191,8 +49232,11 @@
       <c r="R547" t="s">
         <v>2359</v>
       </c>
-    </row>
-    <row r="548" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S547" t="s">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="548" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B548" t="s">
         <v>833</v>
       </c>
@@ -47244,8 +49288,11 @@
       <c r="R548" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="549" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S548" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="549" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B549" t="s">
         <v>834</v>
       </c>
@@ -47297,8 +49344,11 @@
       <c r="R549" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="550" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S549" t="s">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="550" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B550" t="s">
         <v>836</v>
       </c>
@@ -47349,6 +49399,9 @@
       </c>
       <c r="R550" t="s">
         <v>836</v>
+      </c>
+      <c r="S550" t="s">
+        <v>4756</v>
       </c>
     </row>
   </sheetData>
